--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E844235-6DFA-4B42-AF28-5C137266B849}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1E844235-6DFA-4B42-AF28-5C137266B849}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13020" windowWidth="40960" windowHeight="12580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="12580" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="13020" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Test Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$32</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="420">
   <si>
     <t>description</t>
   </si>
@@ -1313,13 +1313,20 @@
   </si>
   <si>
     <t>What's your name?</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1396,8 +1403,84 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1416,8 +1499,127 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1455,148 +1657,378 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="49">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1630,7 +2062,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1655,10 +2087,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1693,7 +2125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1728,7 +2160,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1822,21 +2254,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1853,7 +2285,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1905,26 +2337,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1995,7 +2427,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>374</v>
       </c>
@@ -2030,7 +2462,7 @@
         <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>199</v>
+        <v>419</v>
       </c>
       <c r="M2" t="s">
         <v>415</v>
@@ -2066,7 +2498,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2134,7 +2566,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2199,7 +2631,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2255,7 +2687,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2308,7 +2740,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2355,7 +2787,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>350</v>
       </c>
@@ -2402,7 +2834,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2443,7 +2875,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>336</v>
       </c>
@@ -2478,7 +2910,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2510,7 +2942,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -2536,7 +2968,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2562,7 +2994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -2588,7 +3020,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2611,12 +3043,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>399</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>418</v>
       </c>
       <c r="E16" t="s">
         <v>320</v>
@@ -2634,12 +3066,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>360</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -2651,12 +3083,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>400</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -2668,12 +3100,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
       <c r="E19" t="s">
         <v>299</v>
@@ -2685,12 +3117,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>324</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>300</v>
@@ -2702,12 +3134,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="E21" t="s">
         <v>301</v>
@@ -2719,12 +3151,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
         <v>302</v>
@@ -2733,12 +3165,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>230</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
         <v>293</v>
@@ -2747,9 +3179,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="C24" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="E24" t="s">
         <v>282</v>
@@ -2758,9 +3190,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -2769,9 +3201,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
         <v>285</v>
@@ -2780,9 +3212,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
         <v>269</v>
@@ -2791,9 +3223,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
         <v>286</v>
@@ -2802,9 +3234,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
         <v>287</v>
@@ -2813,9 +3245,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
         <v>219</v>
@@ -2824,9 +3256,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
         <v>278</v>
@@ -2835,7 +3267,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32">
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
       <c r="E32" t="s">
         <v>288</v>
       </c>
@@ -2843,7 +3278,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>263</v>
       </c>
@@ -2851,7 +3286,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>333</v>
       </c>
@@ -2859,7 +3294,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>310</v>
       </c>
@@ -2867,7 +3302,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>264</v>
       </c>
@@ -2875,7 +3310,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>311</v>
       </c>
@@ -2883,7 +3318,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="38" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>270</v>
       </c>
@@ -2891,7 +3326,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>79</v>
       </c>
@@ -2899,7 +3334,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>215</v>
       </c>
@@ -2907,7 +3342,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>292</v>
       </c>
@@ -2915,7 +3350,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>303</v>
       </c>
@@ -2923,7 +3358,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>304</v>
       </c>
@@ -2931,7 +3366,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>346</v>
       </c>
@@ -2939,7 +3374,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>345</v>
       </c>
@@ -2947,7 +3382,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>214</v>
       </c>
@@ -2955,7 +3390,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>323</v>
       </c>
@@ -2963,7 +3398,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>342</v>
       </c>
@@ -2971,7 +3406,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>371</v>
       </c>
@@ -2979,7 +3414,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>305</v>
       </c>
@@ -2987,7 +3422,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>359</v>
       </c>
@@ -2995,7 +3430,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>334</v>
       </c>
@@ -3003,7 +3438,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>271</v>
       </c>
@@ -3011,7 +3446,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>295</v>
       </c>
@@ -3019,7 +3454,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>296</v>
       </c>
@@ -3027,7 +3462,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>297</v>
       </c>
@@ -3035,7 +3470,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>306</v>
       </c>
@@ -3043,7 +3478,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>315</v>
       </c>
@@ -3051,7 +3486,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>340</v>
       </c>
@@ -3059,7 +3494,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>312</v>
       </c>
@@ -3067,7 +3502,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>313</v>
       </c>
@@ -3075,7 +3510,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>372</v>
       </c>
@@ -3083,7 +3518,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>373</v>
       </c>
@@ -3091,7 +3526,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>348</v>
       </c>
@@ -3099,7 +3534,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>316</v>
       </c>
@@ -3107,7 +3542,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>272</v>
       </c>
@@ -3115,7 +3550,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>356</v>
       </c>
@@ -3123,7 +3558,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>317</v>
       </c>
@@ -3131,7 +3566,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
         <v>413</v>
       </c>
@@ -3139,7 +3574,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
         <v>307</v>
       </c>
@@ -3147,7 +3582,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
         <v>414</v>
       </c>
@@ -3155,7 +3590,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>265</v>
       </c>
@@ -3163,7 +3598,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>347</v>
       </c>
@@ -3171,7 +3606,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>283</v>
       </c>
@@ -3179,7 +3614,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>289</v>
       </c>
@@ -3187,7 +3622,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>294</v>
       </c>
@@ -3195,7 +3630,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>335</v>
       </c>
@@ -3203,7 +3638,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>273</v>
       </c>
@@ -3211,7 +3646,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>284</v>
       </c>
@@ -3219,7 +3654,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>290</v>
       </c>
@@ -3227,7 +3662,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>279</v>
       </c>
@@ -3235,7 +3670,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>274</v>
       </c>
@@ -3243,7 +3678,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>291</v>
       </c>
@@ -3251,7 +3686,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>275</v>
       </c>
@@ -3259,7 +3694,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="85" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>276</v>
       </c>
@@ -3267,7 +3702,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>308</v>
       </c>
@@ -3275,7 +3710,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>314</v>
       </c>
@@ -3283,7 +3718,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>298</v>
       </c>
@@ -3291,7 +3726,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>343</v>
       </c>
@@ -3299,7 +3734,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>280</v>
       </c>
@@ -3307,7 +3742,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>281</v>
       </c>
@@ -3315,122 +3750,122 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="S92" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="S93" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="S94" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="S95" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="S96" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="S97" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="98" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="S98" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="S99" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="S100" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="S101" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="S102" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="S103" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="S104" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="S105" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="S106" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="S107" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="S108" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="47.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="35.6640625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="18.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3461,7 +3896,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>48</v>
       </c>
@@ -3482,7 +3917,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -3499,7 +3934,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>224</v>
       </c>
@@ -3544,7 +3979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>416</v>
       </c>
@@ -3569,7 +4004,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13"/>
@@ -3586,7 +4021,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13"/>
@@ -3603,7 +4038,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
@@ -3620,7 +4055,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -3637,7 +4072,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -3654,7 +4089,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -3671,7 +4106,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -3688,7 +4123,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -3705,7 +4140,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -3722,7 +4157,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -3739,7 +4174,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -3756,7 +4191,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -3773,7 +4208,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -3790,7 +4225,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -3807,7 +4242,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -3824,7 +4259,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -3841,7 +4276,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -3858,7 +4293,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -3875,7 +4310,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -3892,7 +4327,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -3909,7 +4344,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -3926,7 +4361,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -3943,7 +4378,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -3960,7 +4395,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -3977,7 +4412,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -3994,7 +4429,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4011,7 +4446,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4028,7 +4463,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4045,7 +4480,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4062,7 +4497,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4079,7 +4514,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4096,7 +4531,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4113,7 +4548,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -4130,7 +4565,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -4147,7 +4582,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -4164,7 +4599,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -4181,7 +4616,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -4198,7 +4633,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -4215,7 +4650,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -4232,7 +4667,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -4249,7 +4684,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -4266,7 +4701,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -4283,7 +4718,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -4300,7 +4735,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -4317,7 +4752,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -4334,7 +4769,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -4351,7 +4786,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -4368,7 +4803,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -4385,7 +4820,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -4402,7 +4837,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -4419,7 +4854,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -4436,7 +4871,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -4453,7 +4888,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -4470,7 +4905,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -4487,7 +4922,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -4504,7 +4939,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -4521,7 +4956,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -4538,7 +4973,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -4555,7 +4990,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -4572,7 +5007,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -4589,7 +5024,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -4606,7 +5041,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -4623,7 +5058,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -4640,7 +5075,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -4657,7 +5092,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -4674,7 +5109,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -4691,7 +5126,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -4708,7 +5143,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -4725,7 +5160,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -4742,7 +5177,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -4759,7 +5194,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -4776,7 +5211,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -4793,7 +5228,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -4810,7 +5245,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -4827,7 +5262,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -4844,7 +5279,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -4861,7 +5296,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -4878,7 +5313,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -4895,7 +5330,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -4912,7 +5347,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -4929,7 +5364,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -4946,7 +5381,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -4963,7 +5398,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -4980,7 +5415,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -4997,7 +5432,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5014,7 +5449,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5031,7 +5466,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5048,7 +5483,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5065,7 +5500,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5082,7 +5517,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5099,7 +5534,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5116,7 +5551,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5133,7 +5568,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -5150,7 +5585,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -5167,7 +5602,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -5184,7 +5619,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -5201,7 +5636,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -5218,7 +5653,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -5235,7 +5670,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -5252,7 +5687,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -5269,7 +5704,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -5286,7 +5721,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -5303,7 +5738,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -5320,7 +5755,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -5337,7 +5772,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -5354,7 +5789,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -5371,7 +5806,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -5388,7 +5823,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -5405,7 +5840,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -5422,7 +5857,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -5439,7 +5874,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -5456,7 +5891,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -5473,7 +5908,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -5490,7 +5925,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -5507,7 +5942,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -5524,7 +5959,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -5541,7 +5976,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -5558,7 +5993,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -5575,7 +6010,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -5592,7 +6027,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -5609,7 +6044,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -5626,7 +6061,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -5643,7 +6078,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -5660,7 +6095,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -5677,7 +6112,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -5694,7 +6129,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -5711,7 +6146,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -5728,7 +6163,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -5745,7 +6180,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -5762,7 +6197,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -5779,7 +6214,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -5796,7 +6231,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -5813,7 +6248,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -5830,7 +6265,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -5847,7 +6282,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -5864,7 +6299,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -5881,7 +6316,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -5898,7 +6333,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -5915,7 +6350,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -5932,7 +6367,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -5949,7 +6384,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -5966,7 +6401,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -5983,7 +6418,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6000,7 +6435,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6017,7 +6452,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6034,7 +6469,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -6051,7 +6486,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -6068,7 +6503,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -6085,7 +6520,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6102,7 +6537,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6119,7 +6554,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -6136,7 +6571,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -6153,7 +6588,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -6170,7 +6605,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -6187,7 +6622,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -6204,7 +6639,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -6221,7 +6656,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -6238,7 +6673,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -6255,7 +6690,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -6272,7 +6707,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -6289,7 +6724,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -6306,7 +6741,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -6323,7 +6758,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -6340,7 +6775,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -6357,7 +6792,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -6374,7 +6809,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -6391,7 +6826,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -6408,7 +6843,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -6425,7 +6860,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -6442,7 +6877,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -6459,7 +6894,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -6476,7 +6911,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -6493,7 +6928,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -6510,7 +6945,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -6527,7 +6962,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -6544,7 +6979,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -6561,7 +6996,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -6578,7 +7013,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -6595,7 +7030,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -6612,7 +7047,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -6629,7 +7064,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -6646,7 +7081,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -6663,7 +7098,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -6680,7 +7115,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -6697,7 +7132,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -6714,7 +7149,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -6731,7 +7166,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -6748,7 +7183,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -6765,7 +7200,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -6782,7 +7217,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -6799,7 +7234,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -6816,7 +7251,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -6833,7 +7268,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -6850,7 +7285,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -6867,7 +7302,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -6884,7 +7319,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -6901,7 +7336,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -6918,7 +7353,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -6935,7 +7370,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -6952,7 +7387,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -6969,7 +7404,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -6986,7 +7421,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7003,7 +7438,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7020,7 +7455,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7037,7 +7472,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -7054,7 +7489,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -7071,7 +7506,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -7088,7 +7523,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7105,7 +7540,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7122,7 +7557,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -7139,7 +7574,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -7156,7 +7591,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -7173,7 +7608,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -7190,7 +7625,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -7207,7 +7642,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -7224,7 +7659,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -7241,7 +7676,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -7258,7 +7693,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -7275,7 +7710,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -7292,7 +7727,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -7309,7 +7744,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -7326,7 +7761,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -7343,7 +7778,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -7360,7 +7795,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -7377,7 +7812,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -7394,7 +7829,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -7411,7 +7846,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -7428,7 +7863,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -7445,7 +7880,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -7462,7 +7897,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -7479,7 +7914,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -7496,7 +7931,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -7513,7 +7948,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -7530,7 +7965,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -7547,7 +7982,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -7564,7 +7999,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -7581,7 +8016,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -7598,7 +8033,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -7615,7 +8050,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -7632,7 +8067,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -7649,7 +8084,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -7666,7 +8101,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -7683,7 +8118,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -7700,7 +8135,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -7717,7 +8152,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -7734,7 +8169,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -7751,7 +8186,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -7768,7 +8203,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -7785,7 +8220,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -7802,7 +8237,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -7819,7 +8254,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -7836,7 +8271,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -7853,7 +8288,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -7870,7 +8305,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -7887,7 +8322,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -7904,7 +8339,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -7921,7 +8356,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -7938,7 +8373,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -7955,7 +8390,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -7972,7 +8407,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -7989,7 +8424,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8006,7 +8441,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8023,7 +8458,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -8040,7 +8475,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -8057,7 +8492,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -8074,7 +8509,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8091,7 +8526,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8108,7 +8543,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8125,7 +8560,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -8142,7 +8577,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -8159,7 +8594,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -8176,7 +8611,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -8193,7 +8628,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -8210,7 +8645,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -8227,7 +8662,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -8244,7 +8679,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -8261,7 +8696,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -8278,7 +8713,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -8295,7 +8730,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -8312,7 +8747,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -8329,7 +8764,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -8346,7 +8781,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -8363,7 +8798,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -8380,7 +8815,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -8397,7 +8832,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -8414,7 +8849,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -8431,7 +8866,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -8448,7 +8883,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -8465,7 +8900,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -8482,7 +8917,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -8499,7 +8934,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -8516,7 +8951,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -8533,7 +8968,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -8550,7 +8985,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -8567,7 +9002,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -8584,7 +9019,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -8601,7 +9036,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -8618,7 +9053,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -8635,7 +9070,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -8652,7 +9087,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -8669,7 +9104,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -8686,7 +9121,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -8703,7 +9138,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -8720,7 +9155,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -8737,7 +9172,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -8754,7 +9189,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -8771,7 +9206,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -8788,7 +9223,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -8805,7 +9240,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -8822,7 +9257,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -8839,7 +9274,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -8856,7 +9291,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -8873,7 +9308,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -8890,7 +9325,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -8907,7 +9342,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -8924,7 +9359,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -8941,7 +9376,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -8958,7 +9393,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -8975,7 +9410,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -8992,7 +9427,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -9009,7 +9444,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -9026,7 +9461,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -9043,7 +9478,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -9060,7 +9495,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -9077,7 +9512,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9094,7 +9529,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9111,7 +9546,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -9128,7 +9563,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -9145,7 +9580,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -9162,7 +9597,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -9179,7 +9614,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -9196,7 +9631,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -9213,7 +9648,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -9230,7 +9665,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -9247,7 +9682,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -9264,7 +9699,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -9281,7 +9716,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -9298,7 +9733,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -9315,7 +9750,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -9332,7 +9767,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -9349,7 +9784,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -9366,7 +9801,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -9383,7 +9818,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -9400,7 +9835,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -9417,7 +9852,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -9434,7 +9869,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -9451,7 +9886,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -9468,7 +9903,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -9485,7 +9920,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -9502,7 +9937,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -9519,7 +9954,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -9536,7 +9971,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -9553,7 +9988,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -9570,7 +10005,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -9587,7 +10022,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -9604,7 +10039,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -9621,7 +10056,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -9638,7 +10073,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -9655,7 +10090,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -9672,7 +10107,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -9689,7 +10124,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -9706,7 +10141,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -9723,7 +10158,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -9740,7 +10175,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -9757,7 +10192,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -9774,7 +10209,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -9791,7 +10226,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -9808,7 +10243,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -9825,7 +10260,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -9842,7 +10277,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -9859,7 +10294,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -9876,7 +10311,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -9893,7 +10328,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -9910,7 +10345,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -9927,7 +10362,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -9944,7 +10379,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -9961,7 +10396,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -9978,7 +10413,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -9995,7 +10430,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -10012,7 +10447,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -10029,7 +10464,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -10046,7 +10481,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -10063,7 +10498,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -10080,7 +10515,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10097,7 +10532,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10114,7 +10549,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -10131,7 +10566,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -10148,7 +10583,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -10165,7 +10600,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -10182,7 +10617,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -10199,7 +10634,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -10216,7 +10651,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -10233,7 +10668,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -10250,7 +10685,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -10267,7 +10702,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -10284,7 +10719,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -10301,7 +10736,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -10318,7 +10753,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -10335,7 +10770,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -10352,7 +10787,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -10369,7 +10804,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -10386,7 +10821,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -10403,7 +10838,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -10420,7 +10855,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -10437,7 +10872,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -10454,7 +10889,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -10471,7 +10906,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -10488,7 +10923,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -10505,7 +10940,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -10522,7 +10957,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -10539,7 +10974,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -10556,7 +10991,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -10573,7 +11008,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -10590,7 +11025,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -10607,7 +11042,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -10624,7 +11059,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -10641,7 +11076,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -10658,7 +11093,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -10675,7 +11110,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -10692,7 +11127,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -10709,7 +11144,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -10726,7 +11161,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -10743,7 +11178,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -10760,7 +11195,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -10777,7 +11212,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -10794,7 +11229,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -10811,7 +11246,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -10828,7 +11263,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -10845,7 +11280,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -10862,7 +11297,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -10879,7 +11314,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -10896,7 +11331,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -10913,7 +11348,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -10930,7 +11365,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -10947,7 +11382,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -10964,7 +11399,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -10981,7 +11416,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -10998,7 +11433,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -11015,7 +11450,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -11032,7 +11467,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -11049,7 +11484,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -11066,7 +11501,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -11083,7 +11518,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11100,7 +11535,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11117,7 +11552,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -11134,7 +11569,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -11151,7 +11586,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -11168,7 +11603,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -11185,7 +11620,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -11202,7 +11637,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -11219,7 +11654,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -11236,7 +11671,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -11253,7 +11688,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -11270,7 +11705,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -11287,7 +11722,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -11304,7 +11739,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -11321,7 +11756,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -11338,7 +11773,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -11355,7 +11790,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -11372,7 +11807,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -11389,7 +11824,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -11406,7 +11841,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -11423,7 +11858,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -11440,7 +11875,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -11457,7 +11892,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -11474,7 +11909,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -11491,7 +11926,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -11508,7 +11943,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -11525,7 +11960,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -11542,7 +11977,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -11559,7 +11994,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -11576,7 +12011,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -11593,7 +12028,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -11610,7 +12045,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -11627,7 +12062,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -11644,7 +12079,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -11661,7 +12096,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -11678,7 +12113,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -11695,7 +12130,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -11712,7 +12147,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -11729,7 +12164,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -11746,7 +12181,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -11763,7 +12198,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -11780,7 +12215,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -11797,7 +12232,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -11814,7 +12249,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -11831,7 +12266,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -11848,7 +12283,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -11865,7 +12300,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -11882,7 +12317,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -11899,7 +12334,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -11916,7 +12351,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -11933,7 +12368,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -11950,7 +12385,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -11967,7 +12402,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -11984,7 +12419,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -12001,7 +12436,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -12018,7 +12453,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -12035,7 +12470,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -12052,7 +12487,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -12069,7 +12504,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -12086,7 +12521,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12103,7 +12538,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12120,7 +12555,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -12137,7 +12572,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -12154,7 +12589,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -12171,7 +12606,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -12188,7 +12623,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -12205,7 +12640,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -12222,7 +12657,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -12239,7 +12674,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -12256,7 +12691,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -12273,7 +12708,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -12290,7 +12725,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -12307,7 +12742,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -12324,7 +12759,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -12341,7 +12776,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -12358,7 +12793,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -12375,7 +12810,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -12392,7 +12827,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -12409,7 +12844,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -12426,7 +12861,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -12443,7 +12878,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -12460,7 +12895,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -12477,7 +12912,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -12494,7 +12929,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -12511,7 +12946,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -12528,7 +12963,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -12545,7 +12980,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -12562,7 +12997,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -12579,7 +13014,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -12596,7 +13031,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -12613,7 +13048,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -12630,7 +13065,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -12647,7 +13082,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -12664,7 +13099,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -12681,7 +13116,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -12698,7 +13133,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -12715,7 +13150,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -12732,7 +13167,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -12749,7 +13184,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -12766,7 +13201,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -12783,7 +13218,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -12800,7 +13235,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -12817,7 +13252,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -12834,7 +13269,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -12851,7 +13286,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -12868,7 +13303,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -12885,7 +13320,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -12902,7 +13337,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -12919,7 +13354,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -12936,7 +13371,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -12953,7 +13388,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -12970,7 +13405,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -12987,7 +13422,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -13004,7 +13439,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -13021,7 +13456,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -13038,7 +13473,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -13055,7 +13490,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -13072,7 +13507,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13089,7 +13524,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13106,7 +13541,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13123,7 +13558,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -13140,7 +13575,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -13157,7 +13592,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -13174,7 +13609,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -13191,7 +13626,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -13208,7 +13643,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -13225,7 +13660,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -13242,7 +13677,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -13259,7 +13694,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -13276,7 +13711,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -13293,7 +13728,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -13310,7 +13745,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -13327,7 +13762,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -13344,7 +13779,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -13361,7 +13796,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -13378,7 +13813,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -13395,7 +13830,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -13412,7 +13847,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -13429,7 +13864,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -13446,7 +13881,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -13463,7 +13898,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -13480,7 +13915,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -13497,7 +13932,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -13514,7 +13949,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -13531,7 +13966,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -13548,7 +13983,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -13565,7 +14000,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -13582,7 +14017,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -13599,7 +14034,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -13616,7 +14051,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -13633,7 +14068,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -13650,7 +14085,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -13667,7 +14102,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -13684,7 +14119,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -13701,7 +14136,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -13718,7 +14153,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -13735,7 +14170,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -13752,7 +14187,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -13769,7 +14204,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -13786,7 +14221,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -13803,7 +14238,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -13820,7 +14255,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -13837,7 +14272,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -13854,7 +14289,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -13871,7 +14306,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -13888,7 +14323,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -13905,7 +14340,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -13922,7 +14357,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -13939,7 +14374,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -13956,7 +14391,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -13973,7 +14408,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -13990,7 +14425,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -14007,7 +14442,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -14024,7 +14459,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -14041,7 +14476,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -14058,7 +14493,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -14075,7 +14510,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14092,7 +14527,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14109,7 +14544,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14126,7 +14561,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -14143,7 +14578,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -14160,7 +14595,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -14177,7 +14612,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -14194,7 +14629,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -14211,7 +14646,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -14228,7 +14663,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -14245,7 +14680,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -14262,7 +14697,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -14279,7 +14714,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -14296,7 +14731,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -14313,7 +14748,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -14330,7 +14765,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -14347,7 +14782,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -14364,7 +14799,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -14381,7 +14816,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -14398,7 +14833,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -14415,7 +14850,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -14432,7 +14867,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -14449,7 +14884,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="27"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -14466,7 +14901,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="27"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -14483,7 +14918,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="27"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -14500,360 +14935,360 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -14861,24 +15296,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C700" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{1E844235-6DFA-4B42-AF28-5C137266B849}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="12580" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="13020" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="12580" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="13020"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -35,16 +35,17 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$24</definedName>
+    <definedName name="web">'#system'!$T$2:$T$108</definedName>
+    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
+    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
+    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
+    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="428">
   <si>
     <t>description</t>
   </si>
@@ -1319,6 +1320,30 @@
   </si>
   <si>
     <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>lazer(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(profile,text)</t>
+  </si>
+  <si>
+    <t>warp(repeats)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1351,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1479,8 +1504,236 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="88">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1618,8 +1871,365 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -1851,6 +2461,588 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1858,7 +3050,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1987,40 +3179,148 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="37" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="54" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="60" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="60" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2345,9 +3645,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2406,24 +3706,27 @@
         <v>399</v>
       </c>
       <c r="Q1" t="s">
+        <v>420</v>
+      </c>
+      <c r="R1" t="s">
         <v>360</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>400</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>55</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>56</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>57</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>58</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2477,24 +3780,27 @@
         <v>401</v>
       </c>
       <c r="Q2" t="s">
+        <v>422</v>
+      </c>
+      <c r="R2" t="s">
         <v>384</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>410</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>98</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>173</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>178</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>185</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2545,24 +3851,27 @@
         <v>402</v>
       </c>
       <c r="Q3" t="s">
+        <v>423</v>
+      </c>
+      <c r="R3" t="s">
         <v>385</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>411</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>99</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>174</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>179</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>367</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2610,24 +3919,27 @@
         <v>403</v>
       </c>
       <c r="Q4" t="s">
+        <v>426</v>
+      </c>
+      <c r="R4" t="s">
         <v>361</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>412</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>357</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>175</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>180</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>186</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2669,21 +3981,24 @@
         <v>404</v>
       </c>
       <c r="Q5" t="s">
+        <v>427</v>
+      </c>
+      <c r="R5" t="s">
         <v>362</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>358</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>176</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>181</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>187</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2722,21 +4037,24 @@
         <v>405</v>
       </c>
       <c r="Q6" t="s">
+        <v>425</v>
+      </c>
+      <c r="R6" t="s">
         <v>364</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>100</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>177</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>182</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>188</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2768,22 +4086,25 @@
       <c r="N7" t="s">
         <v>247</v>
       </c>
+      <c r="O7" t="s">
+        <v>421</v>
+      </c>
       <c r="P7" t="s">
         <v>406</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>363</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>101</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>183</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>189</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2818,19 +4139,19 @@
       <c r="P8" t="s">
         <v>407</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>365</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>102</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>184</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>190</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2862,16 +4183,16 @@
       <c r="P9" t="s">
         <v>408</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>366</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>212</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>191</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2900,13 +4221,13 @@
       <c r="P10" t="s">
         <v>409</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>260</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>192</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2932,13 +4253,13 @@
       <c r="N11" t="s">
         <v>251</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>261</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>262</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2961,10 +4282,10 @@
       <c r="N12" t="s">
         <v>252</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>103</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2987,10 +4308,10 @@
       <c r="N13" t="s">
         <v>257</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>329</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3013,10 +4334,10 @@
       <c r="N14" t="s">
         <v>253</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>104</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3036,10 +4357,10 @@
       <c r="N15" t="s">
         <v>254</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>105</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3059,16 +4380,16 @@
       <c r="N16" t="s">
         <v>255</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>76</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
@@ -3079,13 +4400,13 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -3096,13 +4417,13 @@
       <c r="I18" t="s">
         <v>395</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="C19" t="s">
         <v>259</v>
@@ -3113,13 +4434,13 @@
       <c r="I19" t="s">
         <v>86</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -3130,13 +4451,13 @@
       <c r="I20" t="s">
         <v>45</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>324</v>
@@ -3147,13 +4468,13 @@
       <c r="I21" t="s">
         <v>46</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
@@ -3161,13 +4482,13 @@
       <c r="E22" t="s">
         <v>302</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>228</v>
@@ -3175,18 +4496,21 @@
       <c r="E23" t="s">
         <v>293</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>230</v>
+      </c>
       <c r="C24" t="s">
         <v>229</v>
       </c>
       <c r="E24" t="s">
         <v>282</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3197,7 +4521,7 @@
       <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3208,7 +4532,7 @@
       <c r="E26" t="s">
         <v>285</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3219,7 +4543,7 @@
       <c r="E27" t="s">
         <v>269</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3230,7 +4554,7 @@
       <c r="E28" t="s">
         <v>286</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3241,7 +4565,7 @@
       <c r="E29" t="s">
         <v>287</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3252,7 +4576,7 @@
       <c r="E30" t="s">
         <v>219</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3263,7 +4587,7 @@
       <c r="E31" t="s">
         <v>278</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3274,7 +4598,7 @@
       <c r="E32" t="s">
         <v>288</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3282,7 +4606,7 @@
       <c r="E33" t="s">
         <v>263</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3290,7 +4614,7 @@
       <c r="E34" t="s">
         <v>333</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3298,7 +4622,7 @@
       <c r="E35" t="s">
         <v>310</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3306,7 +4630,7 @@
       <c r="E36" t="s">
         <v>264</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3314,7 +4638,7 @@
       <c r="E37" t="s">
         <v>311</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>396</v>
       </c>
     </row>
@@ -3322,7 +4646,7 @@
       <c r="E38" t="s">
         <v>270</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3330,7 +4654,7 @@
       <c r="E39" t="s">
         <v>79</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3338,7 +4662,7 @@
       <c r="E40" t="s">
         <v>215</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3346,7 +4670,7 @@
       <c r="E41" t="s">
         <v>292</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3354,7 +4678,7 @@
       <c r="E42" t="s">
         <v>303</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3362,7 +4686,7 @@
       <c r="E43" t="s">
         <v>304</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3370,7 +4694,7 @@
       <c r="E44" t="s">
         <v>346</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3378,7 +4702,7 @@
       <c r="E45" t="s">
         <v>345</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3386,7 +4710,7 @@
       <c r="E46" t="s">
         <v>214</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3394,7 +4718,7 @@
       <c r="E47" t="s">
         <v>323</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3402,7 +4726,7 @@
       <c r="E48" t="s">
         <v>342</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3410,7 +4734,7 @@
       <c r="E49" t="s">
         <v>371</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3418,7 +4742,7 @@
       <c r="E50" t="s">
         <v>305</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3426,7 +4750,7 @@
       <c r="E51" t="s">
         <v>359</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3434,7 +4758,7 @@
       <c r="E52" t="s">
         <v>334</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3442,7 +4766,7 @@
       <c r="E53" t="s">
         <v>271</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3450,7 +4774,7 @@
       <c r="E54" t="s">
         <v>295</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3458,7 +4782,7 @@
       <c r="E55" t="s">
         <v>296</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3466,7 +4790,7 @@
       <c r="E56" t="s">
         <v>297</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3474,7 +4798,7 @@
       <c r="E57" t="s">
         <v>306</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3482,7 +4806,7 @@
       <c r="E58" t="s">
         <v>315</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3490,7 +4814,7 @@
       <c r="E59" t="s">
         <v>340</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3498,7 +4822,7 @@
       <c r="E60" t="s">
         <v>312</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3506,7 +4830,7 @@
       <c r="E61" t="s">
         <v>313</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3514,7 +4838,7 @@
       <c r="E62" t="s">
         <v>372</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3522,7 +4846,7 @@
       <c r="E63" t="s">
         <v>373</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3530,7 +4854,7 @@
       <c r="E64" t="s">
         <v>348</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3538,7 +4862,7 @@
       <c r="E65" t="s">
         <v>316</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3546,7 +4870,7 @@
       <c r="E66" t="s">
         <v>272</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3554,7 +4878,7 @@
       <c r="E67" t="s">
         <v>356</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3562,7 +4886,7 @@
       <c r="E68" t="s">
         <v>317</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3570,7 +4894,7 @@
       <c r="E69" t="s">
         <v>413</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3578,7 +4902,7 @@
       <c r="E70" t="s">
         <v>307</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3586,7 +4910,7 @@
       <c r="E71" t="s">
         <v>414</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3594,7 +4918,7 @@
       <c r="E72" t="s">
         <v>265</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3602,7 +4926,7 @@
       <c r="E73" t="s">
         <v>347</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3610,7 +4934,7 @@
       <c r="E74" t="s">
         <v>283</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3618,7 +4942,7 @@
       <c r="E75" t="s">
         <v>289</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3626,7 +4950,7 @@
       <c r="E76" t="s">
         <v>294</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3634,7 +4958,7 @@
       <c r="E77" t="s">
         <v>335</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3642,7 +4966,7 @@
       <c r="E78" t="s">
         <v>273</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3650,7 +4974,7 @@
       <c r="E79" t="s">
         <v>284</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3658,7 +4982,7 @@
       <c r="E80" t="s">
         <v>290</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3666,7 +4990,7 @@
       <c r="E81" t="s">
         <v>279</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3674,7 +4998,7 @@
       <c r="E82" t="s">
         <v>274</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3682,7 +5006,7 @@
       <c r="E83" t="s">
         <v>291</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3690,7 +5014,7 @@
       <c r="E84" t="s">
         <v>275</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3698,7 +5022,7 @@
       <c r="E85" t="s">
         <v>276</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3706,7 +5030,7 @@
       <c r="E86" t="s">
         <v>308</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>386</v>
       </c>
     </row>
@@ -3714,7 +5038,7 @@
       <c r="E87" t="s">
         <v>314</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3722,7 +5046,7 @@
       <c r="E88" t="s">
         <v>298</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3730,7 +5054,7 @@
       <c r="E89" t="s">
         <v>343</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3738,7 +5062,7 @@
       <c r="E90" t="s">
         <v>280</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3746,92 +5070,92 @@
       <c r="E91" t="s">
         <v>281</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="92">
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="93">
-      <c r="S93" t="s">
+      <c r="T93" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="94">
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="95">
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="96">
-      <c r="S96" t="s">
+      <c r="T96" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="97">
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="98">
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="99">
-      <c r="S99" t="s">
+      <c r="T99" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="100">
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="101">
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="102">
-      <c r="S102" t="s">
+      <c r="T102" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="103">
-      <c r="S103" t="s">
+      <c r="T103" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="104">
-      <c r="S104" t="s">
+      <c r="T104" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="105">
-      <c r="S105" t="s">
+      <c r="T105" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="106">
-      <c r="S106" t="s">
+      <c r="T106" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="107">
-      <c r="S107" t="s">
+      <c r="T107" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="108">
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -45,7 +45,7 @@
     <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
     <definedName name="ws">'#system'!$W$2:$W$16</definedName>
     <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="430">
   <si>
     <t>description</t>
   </si>
@@ -1344,6 +1344,12 @@
   </si>
   <si>
     <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1357,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1732,8 +1738,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="88">
+  <fills count="115">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2228,8 +2328,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="83">
+  <borders count="111">
     <border>
       <left/>
       <right/>
@@ -3043,6 +3296,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3050,7 +3585,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3287,40 +3822,85 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="90" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="93" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="96" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="105" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="108" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3780,7 +4360,7 @@
         <v>401</v>
       </c>
       <c r="Q2" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="R2" t="s">
         <v>384</v>
@@ -4036,9 +4616,6 @@
       <c r="P6" t="s">
         <v>405</v>
       </c>
-      <c r="Q6" t="s">
-        <v>425</v>
-      </c>
       <c r="R6" t="s">
         <v>364</v>
       </c>
@@ -4516,7 +5093,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>65</v>
+        <v>428</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -4527,7 +5104,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
         <v>285</v>
@@ -4538,7 +5115,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
         <v>269</v>
@@ -4549,7 +5126,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
         <v>286</v>
@@ -4560,7 +5137,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
         <v>287</v>
@@ -4571,7 +5148,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
         <v>219</v>
@@ -4582,7 +5159,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
         <v>278</v>
@@ -4593,7 +5170,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
         <v>288</v>
@@ -4603,6 +5180,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
       <c r="E33" t="s">
         <v>263</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10516"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{1E844235-6DFA-4B42-AF28-5C137266B849}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9E97A246-C7A2-C24B-8C06-2B329CABB520}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="12580" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="13020"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="13700" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-13700" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -37,20 +37,27 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$24</definedName>
-    <definedName name="web">'#system'!$T$2:$T$108</definedName>
-    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
-    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
-    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
-    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -60,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="440">
   <si>
     <t>description</t>
   </si>
@@ -659,9 +666,6 @@
     <t>mail</t>
   </si>
   <si>
-    <t>send(to,subject,body)</t>
-  </si>
-  <si>
     <t>open(url)</t>
   </si>
   <si>
@@ -1328,18 +1332,9 @@
     <t>saveResults(db,sqls,outputDir)</t>
   </si>
   <si>
-    <t>lazer(repeats)</t>
-  </si>
-  <si>
     <t>play(audio)</t>
   </si>
   <si>
-    <t>speak(profile,text)</t>
-  </si>
-  <si>
-    <t>warp(repeats)</t>
-  </si>
-  <si>
     <t>speak(text)</t>
   </si>
   <si>
@@ -1350,6 +1345,48 @@
   </si>
   <si>
     <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>What's the current step? Is it $(execution|step|name)?</t>
+  </si>
+  <si>
+    <t>Y,N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Thank you, ${nexial.step.response}. What's your $(execution|script|name) position?</t>
+  </si>
+  <si>
+    <t>Keeping your $(execution|script|name) at ${nexial.step.response} is a good idea.  Now, stand up, turn around, and sit down</t>
+  </si>
+  <si>
+    <t>You've entered ${nexial.step.response}</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1394,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1433,310 +1470,6 @@
       <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
     </font>
     <font>
       <name val="Tahoma"/>
@@ -1833,7 +1566,7 @@
       <u val="none"/>
     </font>
   </fonts>
-  <fills count="115">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1850,482 +1583,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2482,7 +1739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="111">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2519,782 +1776,6 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -3585,7 +2066,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3714,193 +2195,49 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="15" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="23" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="33" fontId="27" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="28" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="29" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="30" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="31" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="32" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="35" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="37" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="54" fontId="39" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="40" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="60" fontId="41" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="60" fontId="42" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="43" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="44" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="45" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="69" fontId="47" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="75" fontId="51" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="78" fontId="52" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="81" fontId="53" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="81" fontId="54" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="55" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="56" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="57" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="90" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="93" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="96" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="105" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4225,9 +2562,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:AA108"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4241,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -4259,13 +2596,13 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>
@@ -4277,45 +2614,51 @@
         <v>53</v>
       </c>
       <c r="N1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s">
         <v>54</v>
       </c>
       <c r="P1" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>426</v>
+      </c>
+      <c r="R1" t="s">
+        <v>419</v>
+      </c>
+      <c r="S1" t="s">
+        <v>359</v>
+      </c>
+      <c r="T1" t="s">
         <v>399</v>
       </c>
-      <c r="Q1" t="s">
-        <v>420</v>
-      </c>
-      <c r="R1" t="s">
-        <v>360</v>
-      </c>
-      <c r="S1" t="s">
-        <v>400</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>55</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>56</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>57</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" t="s">
-        <v>230</v>
+      <c r="Y1" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" t="s">
         <v>374</v>
-      </c>
-      <c r="B2" t="s">
-        <v>375</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -4333,55 +2676,61 @@
         <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K2" t="s">
         <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="R2" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="S2" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="T2" t="s">
+        <v>409</v>
+      </c>
+      <c r="U2" t="s">
         <v>98</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>173</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>178</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>185</v>
       </c>
-      <c r="X2" t="s">
-        <v>231</v>
+      <c r="Y2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="3">
@@ -4389,70 +2738,73 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E3" t="s">
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P3" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="R3" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="S3" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="T3" t="s">
+        <v>410</v>
+      </c>
+      <c r="U3" t="s">
         <v>99</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>174</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>179</v>
       </c>
-      <c r="W3" t="s">
-        <v>367</v>
-      </c>
       <c r="X3" t="s">
-        <v>232</v>
+        <v>366</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="4">
@@ -4460,7 +2812,7 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -4469,19 +2821,19 @@
         <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K4" t="s">
         <v>88</v>
@@ -4490,37 +2842,40 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P4" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="R4" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="S4" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="T4" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="U4" t="s">
+        <v>356</v>
+      </c>
+      <c r="V4" t="s">
         <v>175</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>180</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>186</v>
       </c>
-      <c r="X4" t="s">
-        <v>233</v>
+      <c r="Y4" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -4528,19 +2883,19 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I5" t="s">
         <v>73</v>
@@ -4552,34 +2907,37 @@
         <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P5" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="R5" t="s">
-        <v>362</v>
-      </c>
-      <c r="T5" t="s">
-        <v>358</v>
+        <v>423</v>
+      </c>
+      <c r="S5" t="s">
+        <v>361</v>
       </c>
       <c r="U5" t="s">
+        <v>357</v>
+      </c>
+      <c r="V5" t="s">
         <v>176</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>181</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>187</v>
       </c>
-      <c r="X5" t="s">
-        <v>234</v>
+      <c r="Y5" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="6">
@@ -4587,16 +2945,16 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -4608,31 +2966,34 @@
         <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P6" t="s">
-        <v>405</v>
-      </c>
-      <c r="R6" t="s">
-        <v>364</v>
-      </c>
-      <c r="T6" t="s">
+        <v>404</v>
+      </c>
+      <c r="S6" t="s">
+        <v>363</v>
+      </c>
+      <c r="U6" t="s">
         <v>100</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>177</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>182</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>188</v>
       </c>
-      <c r="X6" t="s">
-        <v>235</v>
+      <c r="Y6" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7">
@@ -4640,16 +3001,16 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -4661,45 +3022,48 @@
         <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P7" t="s">
-        <v>406</v>
-      </c>
-      <c r="R7" t="s">
-        <v>363</v>
-      </c>
-      <c r="T7" t="s">
+        <v>405</v>
+      </c>
+      <c r="S7" t="s">
+        <v>362</v>
+      </c>
+      <c r="U7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>183</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>189</v>
       </c>
-      <c r="X7" t="s">
-        <v>236</v>
+      <c r="Y7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -4711,25 +3075,25 @@
         <v>92</v>
       </c>
       <c r="N8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P8" t="s">
-        <v>407</v>
-      </c>
-      <c r="R8" t="s">
-        <v>365</v>
-      </c>
-      <c r="T8" t="s">
+        <v>406</v>
+      </c>
+      <c r="S8" t="s">
+        <v>364</v>
+      </c>
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>184</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>190</v>
       </c>
-      <c r="X8" t="s">
-        <v>237</v>
+      <c r="Z8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="9">
@@ -4737,16 +3101,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K9" t="s">
         <v>39</v>
@@ -4755,33 +3119,33 @@
         <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P9" t="s">
-        <v>408</v>
-      </c>
-      <c r="R9" t="s">
-        <v>366</v>
-      </c>
-      <c r="T9" t="s">
-        <v>212</v>
-      </c>
-      <c r="W9" t="s">
+        <v>407</v>
+      </c>
+      <c r="S9" t="s">
+        <v>365</v>
+      </c>
+      <c r="U9" t="s">
+        <v>211</v>
+      </c>
+      <c r="X9" t="s">
         <v>191</v>
       </c>
-      <c r="X9" t="s">
-        <v>238</v>
+      <c r="Z9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -4793,19 +3157,19 @@
         <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P10" t="s">
-        <v>409</v>
-      </c>
-      <c r="T10" t="s">
-        <v>260</v>
-      </c>
-      <c r="W10" t="s">
+        <v>408</v>
+      </c>
+      <c r="U10" t="s">
+        <v>259</v>
+      </c>
+      <c r="X10" t="s">
         <v>192</v>
       </c>
-      <c r="X10" t="s">
-        <v>239</v>
+      <c r="Z10" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="11">
@@ -4813,10 +3177,10 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -4828,16 +3192,16 @@
         <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>251</v>
-      </c>
-      <c r="T11" t="s">
+        <v>250</v>
+      </c>
+      <c r="U11" t="s">
+        <v>260</v>
+      </c>
+      <c r="X11" t="s">
         <v>261</v>
       </c>
-      <c r="W11" t="s">
-        <v>262</v>
-      </c>
-      <c r="X11" t="s">
-        <v>240</v>
+      <c r="Z11" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="12">
@@ -4848,7 +3212,7 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -4857,12 +3221,12 @@
         <v>95</v>
       </c>
       <c r="N12" t="s">
-        <v>252</v>
-      </c>
-      <c r="T12" t="s">
+        <v>251</v>
+      </c>
+      <c r="U12" t="s">
         <v>103</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4874,7 +3238,7 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -4883,24 +3247,24 @@
         <v>96</v>
       </c>
       <c r="N13" t="s">
-        <v>257</v>
-      </c>
-      <c r="T13" t="s">
-        <v>329</v>
-      </c>
-      <c r="W13" t="s">
+        <v>256</v>
+      </c>
+      <c r="U13" t="s">
+        <v>328</v>
+      </c>
+      <c r="X13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>
@@ -4909,12 +3273,12 @@
         <v>97</v>
       </c>
       <c r="N14" t="s">
-        <v>253</v>
-      </c>
-      <c r="T14" t="s">
+        <v>252</v>
+      </c>
+      <c r="U14" t="s">
         <v>104</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4923,50 +3287,50 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I15" t="s">
         <v>85</v>
       </c>
       <c r="N15" t="s">
-        <v>254</v>
-      </c>
-      <c r="T15" t="s">
+        <v>253</v>
+      </c>
+      <c r="U15" t="s">
         <v>105</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N16" t="s">
-        <v>255</v>
-      </c>
-      <c r="T16" t="s">
+        <v>254</v>
+      </c>
+      <c r="U16" t="s">
         <v>76</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
@@ -4977,13 +3341,13 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -4992,124 +3356,130 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>395</v>
-      </c>
-      <c r="T18" t="s">
+        <v>394</v>
+      </c>
+      <c r="U18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I19" t="s">
         <v>86</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I20" t="s">
         <v>45</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I21" t="s">
         <v>46</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>302</v>
-      </c>
-      <c r="T22" t="s">
+        <v>301</v>
+      </c>
+      <c r="U22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
-      </c>
-      <c r="T23" t="s">
+        <v>292</v>
+      </c>
+      <c r="U23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" t="s">
-        <v>282</v>
-      </c>
-      <c r="T24" t="s">
+        <v>281</v>
+      </c>
+      <c r="U24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>434</v>
+      </c>
       <c r="C25" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>285</v>
-      </c>
-      <c r="T26" t="s">
+        <v>284</v>
+      </c>
+      <c r="U26" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5118,10 +3488,10 @@
         <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>269</v>
-      </c>
-      <c r="T27" t="s">
-        <v>330</v>
+        <v>268</v>
+      </c>
+      <c r="U27" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="28">
@@ -5129,9 +3499,9 @@
         <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>286</v>
-      </c>
-      <c r="T28" t="s">
+        <v>285</v>
+      </c>
+      <c r="U28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5140,9 +3510,9 @@
         <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
-      </c>
-      <c r="T29" t="s">
+        <v>286</v>
+      </c>
+      <c r="U29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5151,9 +3521,9 @@
         <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>219</v>
-      </c>
-      <c r="T30" t="s">
+        <v>218</v>
+      </c>
+      <c r="U30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5162,9 +3532,9 @@
         <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
-      </c>
-      <c r="T31" t="s">
+        <v>277</v>
+      </c>
+      <c r="U31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5173,9 +3543,9 @@
         <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>288</v>
-      </c>
-      <c r="T32" t="s">
+        <v>287</v>
+      </c>
+      <c r="U32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5184,49 +3554,49 @@
         <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>263</v>
-      </c>
-      <c r="T33" t="s">
+        <v>262</v>
+      </c>
+      <c r="U33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>333</v>
-      </c>
-      <c r="T34" t="s">
-        <v>213</v>
+        <v>332</v>
+      </c>
+      <c r="U34" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>310</v>
-      </c>
-      <c r="T35" t="s">
+        <v>309</v>
+      </c>
+      <c r="U35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T36" t="s">
-        <v>341</v>
+        <v>263</v>
+      </c>
+      <c r="U36" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>311</v>
-      </c>
-      <c r="T37" t="s">
-        <v>396</v>
+        <v>310</v>
+      </c>
+      <c r="U37" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>270</v>
-      </c>
-      <c r="T38" t="s">
+        <v>269</v>
+      </c>
+      <c r="U38" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5234,508 +3604,508 @@
       <c r="E39" t="s">
         <v>79</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>215</v>
-      </c>
-      <c r="T40" t="s">
+        <v>214</v>
+      </c>
+      <c r="U40" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>292</v>
-      </c>
-      <c r="T41" t="s">
+        <v>291</v>
+      </c>
+      <c r="U41" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>303</v>
-      </c>
-      <c r="T42" t="s">
+        <v>302</v>
+      </c>
+      <c r="U42" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>304</v>
-      </c>
-      <c r="T43" t="s">
+        <v>303</v>
+      </c>
+      <c r="U43" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>346</v>
-      </c>
-      <c r="T44" t="s">
-        <v>216</v>
+        <v>345</v>
+      </c>
+      <c r="U44" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>345</v>
-      </c>
-      <c r="T45" t="s">
+        <v>344</v>
+      </c>
+      <c r="U45" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>214</v>
-      </c>
-      <c r="T46" t="s">
+        <v>213</v>
+      </c>
+      <c r="U46" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>323</v>
-      </c>
-      <c r="T47" t="s">
+        <v>322</v>
+      </c>
+      <c r="U47" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>342</v>
-      </c>
-      <c r="T48" t="s">
+        <v>341</v>
+      </c>
+      <c r="U48" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>371</v>
-      </c>
-      <c r="T49" t="s">
+        <v>370</v>
+      </c>
+      <c r="U49" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>305</v>
-      </c>
-      <c r="T50" t="s">
-        <v>349</v>
+        <v>304</v>
+      </c>
+      <c r="U50" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>359</v>
-      </c>
-      <c r="T51" t="s">
+        <v>358</v>
+      </c>
+      <c r="U51" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>334</v>
-      </c>
-      <c r="T52" t="s">
+        <v>333</v>
+      </c>
+      <c r="U52" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>271</v>
-      </c>
-      <c r="T53" t="s">
+        <v>270</v>
+      </c>
+      <c r="U53" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>295</v>
-      </c>
-      <c r="T54" t="s">
+        <v>294</v>
+      </c>
+      <c r="U54" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>296</v>
-      </c>
-      <c r="T55" t="s">
+        <v>295</v>
+      </c>
+      <c r="U55" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>297</v>
-      </c>
-      <c r="T56" t="s">
+        <v>296</v>
+      </c>
+      <c r="U56" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>306</v>
-      </c>
-      <c r="T57" t="s">
+        <v>305</v>
+      </c>
+      <c r="U57" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>315</v>
-      </c>
-      <c r="T58" t="s">
-        <v>217</v>
+        <v>314</v>
+      </c>
+      <c r="U58" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>340</v>
-      </c>
-      <c r="T59" t="s">
-        <v>392</v>
+        <v>339</v>
+      </c>
+      <c r="U59" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>312</v>
-      </c>
-      <c r="T60" t="s">
+        <v>311</v>
+      </c>
+      <c r="U60" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>313</v>
-      </c>
-      <c r="T61" t="s">
+        <v>312</v>
+      </c>
+      <c r="U61" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>372</v>
-      </c>
-      <c r="T62" t="s">
+        <v>371</v>
+      </c>
+      <c r="U62" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>373</v>
-      </c>
-      <c r="T63" t="s">
+        <v>372</v>
+      </c>
+      <c r="U63" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>348</v>
-      </c>
-      <c r="T64" t="s">
-        <v>200</v>
+        <v>347</v>
+      </c>
+      <c r="U64" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>316</v>
-      </c>
-      <c r="T65" t="s">
-        <v>201</v>
+        <v>315</v>
+      </c>
+      <c r="U65" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>272</v>
-      </c>
-      <c r="T66" t="s">
+        <v>271</v>
+      </c>
+      <c r="U66" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>356</v>
-      </c>
-      <c r="T67" t="s">
+        <v>355</v>
+      </c>
+      <c r="U67" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>317</v>
-      </c>
-      <c r="T68" t="s">
+        <v>316</v>
+      </c>
+      <c r="U68" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>413</v>
-      </c>
-      <c r="T69" t="s">
+        <v>412</v>
+      </c>
+      <c r="U69" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>307</v>
-      </c>
-      <c r="T70" t="s">
+        <v>306</v>
+      </c>
+      <c r="U70" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>414</v>
-      </c>
-      <c r="T71" t="s">
-        <v>202</v>
+        <v>413</v>
+      </c>
+      <c r="U71" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>265</v>
-      </c>
-      <c r="T72" t="s">
-        <v>203</v>
+        <v>264</v>
+      </c>
+      <c r="U72" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>347</v>
-      </c>
-      <c r="T73" t="s">
-        <v>204</v>
+        <v>346</v>
+      </c>
+      <c r="U73" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>283</v>
-      </c>
-      <c r="T74" t="s">
-        <v>205</v>
+        <v>282</v>
+      </c>
+      <c r="U74" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>289</v>
-      </c>
-      <c r="T75" t="s">
-        <v>218</v>
+        <v>288</v>
+      </c>
+      <c r="U75" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>294</v>
-      </c>
-      <c r="T76" t="s">
+        <v>293</v>
+      </c>
+      <c r="U76" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>335</v>
-      </c>
-      <c r="T77" t="s">
-        <v>206</v>
+        <v>334</v>
+      </c>
+      <c r="U77" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>273</v>
-      </c>
-      <c r="T78" t="s">
+        <v>272</v>
+      </c>
+      <c r="U78" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>284</v>
-      </c>
-      <c r="T79" t="s">
-        <v>207</v>
+        <v>283</v>
+      </c>
+      <c r="U79" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>290</v>
-      </c>
-      <c r="T80" t="s">
-        <v>208</v>
+        <v>289</v>
+      </c>
+      <c r="U80" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>279</v>
-      </c>
-      <c r="T81" t="s">
-        <v>209</v>
+        <v>278</v>
+      </c>
+      <c r="U81" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>274</v>
-      </c>
-      <c r="T82" t="s">
-        <v>210</v>
+        <v>273</v>
+      </c>
+      <c r="U82" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>291</v>
-      </c>
-      <c r="T83" t="s">
-        <v>226</v>
+        <v>290</v>
+      </c>
+      <c r="U83" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>275</v>
-      </c>
-      <c r="T84" t="s">
-        <v>211</v>
+        <v>274</v>
+      </c>
+      <c r="U84" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>276</v>
-      </c>
-      <c r="T85" t="s">
+        <v>275</v>
+      </c>
+      <c r="U85" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>308</v>
-      </c>
-      <c r="T86" t="s">
-        <v>386</v>
+        <v>307</v>
+      </c>
+      <c r="U86" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>314</v>
-      </c>
-      <c r="T87" t="s">
+        <v>313</v>
+      </c>
+      <c r="U87" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>298</v>
-      </c>
-      <c r="T88" t="s">
+        <v>297</v>
+      </c>
+      <c r="U88" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>343</v>
-      </c>
-      <c r="T89" t="s">
+        <v>342</v>
+      </c>
+      <c r="U89" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>280</v>
-      </c>
-      <c r="T90" t="s">
+        <v>279</v>
+      </c>
+      <c r="U90" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>281</v>
-      </c>
-      <c r="T91" t="s">
+        <v>280</v>
+      </c>
+      <c r="U91" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="92">
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="93">
-      <c r="T93" t="s">
+      <c r="U93" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="94">
-      <c r="T94" t="s">
+      <c r="U94" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="95">
-      <c r="T95" t="s">
+      <c r="U95" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="96">
-      <c r="T96" t="s">
+      <c r="U96" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="97">
-      <c r="T97" t="s">
+      <c r="U97" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="98">
-      <c r="T98" t="s">
+      <c r="U98" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="99">
-      <c r="T99" t="s">
+      <c r="U99" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="100">
-      <c r="T100" t="s">
+      <c r="U100" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="101">
-      <c r="T101" t="s">
+      <c r="U101" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="102">
-      <c r="T102" t="s">
+      <c r="U102" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="103">
-      <c r="T103" t="s">
+      <c r="U103" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="104">
-      <c r="T104" t="s">
+      <c r="U104" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="105">
-      <c r="T105" t="s">
+      <c r="U105" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="106">
-      <c r="T106" t="s">
+      <c r="U106" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="107">
-      <c r="T107" t="s">
+      <c r="U107" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="108">
-      <c r="T108" t="s">
+      <c r="U108" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5755,12 +4125,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="28" width="20.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="9" width="47.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="10" width="35.6640625" collapsed="true"/>
-    <col min="5" max="9" customWidth="true" style="10" width="18.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="23" width="18.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="13.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="42.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="56.5" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="13.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="13.5" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
     <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
@@ -5783,10 +4154,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>19</v>
@@ -5840,13 +4211,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -5885,17 +4256,17 @@
     </row>
     <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -5911,9 +4282,15 @@
     <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>431</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -5928,9 +4305,15 @@
     <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>432</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -5945,11 +4328,21 @@
     <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>430</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="22"/>
@@ -5962,9 +4355,15 @@
     <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>433</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{9E97A246-C7A2-C24B-8C06-2B329CABB520}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="13700" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-13700" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="13700" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-13700"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -22,18 +22,18 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
@@ -47,7 +47,7 @@
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="454">
   <si>
     <t>description</t>
   </si>
@@ -1387,6 +1387,48 @@
   </si>
   <si>
     <t>put(url,body,output)</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>average(variableName,array)</t>
+  </si>
+  <si>
+    <t>ceiling(variableName)</t>
+  </si>
+  <si>
+    <t>decrement(variableName,amount)</t>
+  </si>
+  <si>
+    <t>floor(variableName)</t>
+  </si>
+  <si>
+    <t>increment(variableName,amount)</t>
+  </si>
+  <si>
+    <t>max(variableName,array)</t>
+  </si>
+  <si>
+    <t>min(variableName,array)</t>
+  </si>
+  <si>
+    <t>round(variableName,closestDigit)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1436,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="86" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1565,8 +1607,384 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1738,8 +2156,620 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -2059,6 +3089,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2066,7 +4224,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="112">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2195,49 +4353,229 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="28" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="43" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="44" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2564,7 +4902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2685,13 +5023,13 @@
         <v>386</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>441</v>
       </c>
       <c r="L2" t="s">
         <v>418</v>
       </c>
       <c r="M2" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="N2" t="s">
         <v>255</v>
@@ -2727,7 +5065,7 @@
         <v>185</v>
       </c>
       <c r="Y2" t="s">
-        <v>186</v>
+        <v>452</v>
       </c>
       <c r="Z2" t="s">
         <v>230</v>
@@ -2765,10 +5103,10 @@
         <v>336</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>317</v>
+        <v>443</v>
       </c>
       <c r="N3" t="s">
         <v>242</v>
@@ -2801,7 +5139,7 @@
         <v>366</v>
       </c>
       <c r="Y3" t="s">
-        <v>435</v>
+        <v>186</v>
       </c>
       <c r="Z3" t="s">
         <v>231</v>
@@ -2836,7 +5174,7 @@
         <v>337</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -2872,7 +5210,7 @@
         <v>186</v>
       </c>
       <c r="Y4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z4" t="s">
         <v>232</v>
@@ -2901,7 +5239,7 @@
         <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -2934,7 +5272,7 @@
         <v>187</v>
       </c>
       <c r="Y5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z5" t="s">
         <v>233</v>
@@ -2960,7 +5298,7 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
@@ -2990,7 +5328,7 @@
         <v>188</v>
       </c>
       <c r="Y6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z6" t="s">
         <v>234</v>
@@ -3016,7 +5354,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -3043,7 +5381,7 @@
         <v>189</v>
       </c>
       <c r="Y7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Z7" t="s">
         <v>235</v>
@@ -3069,7 +5407,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -3091,6 +5429,9 @@
       </c>
       <c r="X8" t="s">
         <v>190</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>439</v>
       </c>
       <c r="Z8" t="s">
         <v>236</v>
@@ -3113,7 +5454,7 @@
         <v>392</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -3151,10 +5492,10 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
+        <v>453</v>
       </c>
       <c r="N10" t="s">
         <v>249</v>
@@ -3186,10 +5527,10 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
         <v>250</v>
@@ -3217,8 +5558,11 @@
       <c r="I12" t="s">
         <v>82</v>
       </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
       <c r="M12" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
         <v>251</v>
@@ -3244,7 +5588,7 @@
         <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N13" t="s">
         <v>256</v>
@@ -3270,7 +5614,7 @@
         <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N14" t="s">
         <v>252</v>
@@ -3295,6 +5639,9 @@
       <c r="I15" t="s">
         <v>85</v>
       </c>
+      <c r="M15" t="s">
+        <v>97</v>
+      </c>
       <c r="N15" t="s">
         <v>253</v>
       </c>
@@ -3906,7 +6253,7 @@
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>334</v>
+        <v>440</v>
       </c>
       <c r="U77" t="s">
         <v>205</v>
@@ -3914,7 +6261,7 @@
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="U78" t="s">
         <v>150</v>
@@ -3922,7 +6269,7 @@
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="U79" t="s">
         <v>206</v>
@@ -3930,7 +6277,7 @@
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="U80" t="s">
         <v>207</v>
@@ -3938,7 +6285,7 @@
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="U81" t="s">
         <v>208</v>
@@ -3946,7 +6293,7 @@
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="U82" t="s">
         <v>209</v>
@@ -3954,7 +6301,7 @@
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="U83" t="s">
         <v>225</v>
@@ -3962,7 +6309,7 @@
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="U84" t="s">
         <v>210</v>
@@ -3970,7 +6317,7 @@
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U85" t="s">
         <v>151</v>
@@ -3978,7 +6325,7 @@
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="U86" t="s">
         <v>385</v>
@@ -3986,7 +6333,7 @@
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="U87" t="s">
         <v>152</v>
@@ -3994,7 +6341,7 @@
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="U88" t="s">
         <v>153</v>
@@ -4002,7 +6349,7 @@
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="U89" t="s">
         <v>154</v>
@@ -4010,7 +6357,7 @@
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="U90" t="s">
         <v>155</v>
@@ -4018,13 +6365,16 @@
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U91" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="92">
+      <c r="E92" t="s">
+        <v>280</v>
+      </c>
       <c r="U92" t="s">
         <v>157</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4477" uniqueCount="459">
   <si>
     <t>description</t>
   </si>
@@ -1429,6 +1429,21 @@
   </si>
   <si>
     <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1451,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="86" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1983,8 +1998,384 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2768,8 +3159,620 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -4217,6 +5220,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4224,7 +6355,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="172">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4533,49 +6664,229 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4900,7 +7211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5936,7 +8247,7 @@
         <v>310</v>
       </c>
       <c r="U37" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38">
@@ -5944,7 +8255,7 @@
         <v>269</v>
       </c>
       <c r="U38" t="s">
-        <v>123</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39">
@@ -5952,7 +8263,7 @@
         <v>79</v>
       </c>
       <c r="U39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -5960,7 +8271,7 @@
         <v>214</v>
       </c>
       <c r="U40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -5968,7 +8279,7 @@
         <v>291</v>
       </c>
       <c r="U41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42">
@@ -5976,7 +8287,7 @@
         <v>302</v>
       </c>
       <c r="U42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -5984,7 +8295,7 @@
         <v>303</v>
       </c>
       <c r="U43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44">
@@ -5992,7 +8303,7 @@
         <v>345</v>
       </c>
       <c r="U44" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
@@ -6000,7 +8311,7 @@
         <v>344</v>
       </c>
       <c r="U45" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46">
@@ -6008,7 +8319,7 @@
         <v>213</v>
       </c>
       <c r="U46" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
@@ -6016,7 +8327,7 @@
         <v>322</v>
       </c>
       <c r="U47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
@@ -6024,7 +8335,7 @@
         <v>341</v>
       </c>
       <c r="U48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
@@ -6032,7 +8343,7 @@
         <v>370</v>
       </c>
       <c r="U49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50">
@@ -6040,7 +8351,7 @@
         <v>304</v>
       </c>
       <c r="U50" t="s">
-        <v>348</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51">
@@ -6048,7 +8359,7 @@
         <v>358</v>
       </c>
       <c r="U51" t="s">
-        <v>133</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52">
@@ -6056,7 +8367,7 @@
         <v>333</v>
       </c>
       <c r="U52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53">
@@ -6064,7 +8375,7 @@
         <v>270</v>
       </c>
       <c r="U53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54">
@@ -6072,7 +8383,7 @@
         <v>294</v>
       </c>
       <c r="U54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
@@ -6080,7 +8391,7 @@
         <v>295</v>
       </c>
       <c r="U55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
@@ -6088,7 +8399,7 @@
         <v>296</v>
       </c>
       <c r="U56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57">
@@ -6096,7 +8407,7 @@
         <v>305</v>
       </c>
       <c r="U57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58">
@@ -6104,7 +8415,7 @@
         <v>314</v>
       </c>
       <c r="U58" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59">
@@ -6112,7 +8423,7 @@
         <v>339</v>
       </c>
       <c r="U59" t="s">
-        <v>391</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60">
@@ -6120,7 +8431,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>140</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61">
@@ -6128,7 +8439,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62">
@@ -6136,7 +8447,7 @@
         <v>371</v>
       </c>
       <c r="U62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63">
@@ -6144,7 +8455,7 @@
         <v>372</v>
       </c>
       <c r="U63" t="s">
-        <v>143</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64">
@@ -6152,7 +8463,7 @@
         <v>347</v>
       </c>
       <c r="U64" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65">
@@ -6160,7 +8471,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66">
@@ -6168,7 +8479,7 @@
         <v>271</v>
       </c>
       <c r="U66" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67">
@@ -6176,7 +8487,7 @@
         <v>355</v>
       </c>
       <c r="U67" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68">
@@ -6184,7 +8495,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69">
@@ -6192,7 +8503,7 @@
         <v>412</v>
       </c>
       <c r="U69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70">
@@ -6200,7 +8511,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71">
@@ -6208,7 +8519,7 @@
         <v>413</v>
       </c>
       <c r="U71" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72">
@@ -6216,7 +8527,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73">
@@ -6224,7 +8535,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74">
@@ -6232,7 +8543,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75">
@@ -6240,7 +8551,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76">
@@ -6248,7 +8559,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77">
@@ -6256,7 +8567,7 @@
         <v>440</v>
       </c>
       <c r="U77" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78">
@@ -6264,7 +8575,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79">
@@ -6272,7 +8583,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80">
@@ -6280,7 +8591,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>207</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81">
@@ -6288,7 +8599,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>208</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82">
@@ -6296,7 +8607,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83">
@@ -6304,7 +8615,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84">
@@ -6312,7 +8623,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85">
@@ -6320,7 +8631,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86">
@@ -6328,7 +8639,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>385</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87">
@@ -6336,7 +8647,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88">
@@ -6344,7 +8655,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89">
@@ -6352,7 +8663,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>154</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90">
@@ -6360,7 +8671,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91">
@@ -6368,7 +8679,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92">
@@ -6376,86 +8687,101 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="U109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="U110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="U111" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4477" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4925" uniqueCount="460">
   <si>
     <t>description</t>
   </si>
@@ -1444,6 +1444,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1454,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2374,8 +2377,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3771,8 +3868,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6348,6 +6598,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6355,7 +6887,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="187">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6844,49 +7376,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7211,7 +7788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8423,7 +9000,7 @@
         <v>339</v>
       </c>
       <c r="U59" t="s">
-        <v>216</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60">
@@ -8431,7 +9008,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>391</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61">
@@ -8439,7 +9016,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62">
@@ -8447,7 +9024,7 @@
         <v>371</v>
       </c>
       <c r="U62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -8455,7 +9032,7 @@
         <v>372</v>
       </c>
       <c r="U63" t="s">
-        <v>455</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -8463,7 +9040,7 @@
         <v>347</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65">
@@ -8471,7 +9048,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -8479,7 +9056,7 @@
         <v>271</v>
       </c>
       <c r="U66" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -8487,7 +9064,7 @@
         <v>355</v>
       </c>
       <c r="U67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68">
@@ -8495,7 +9072,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69">
@@ -8503,7 +9080,7 @@
         <v>412</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -8511,7 +9088,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -8519,7 +9096,7 @@
         <v>413</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -8527,7 +9104,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -8535,7 +9112,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -8543,7 +9120,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75">
@@ -8551,7 +9128,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
@@ -8559,7 +9136,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77">
@@ -8567,7 +9144,7 @@
         <v>440</v>
       </c>
       <c r="U77" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78">
@@ -8575,7 +9152,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79">
@@ -8583,7 +9160,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -8591,7 +9168,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>456</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81">
@@ -8599,7 +9176,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82">
@@ -8607,7 +9184,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>206</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83">
@@ -8615,7 +9192,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84">
@@ -8623,7 +9200,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85">
@@ -8631,7 +9208,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
@@ -8639,7 +9216,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87">
@@ -8647,7 +9224,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88">
@@ -8655,7 +9232,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89">
@@ -8663,7 +9240,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>385</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90">
@@ -8671,7 +9248,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>152</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91">
@@ -8679,7 +9256,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
@@ -8687,101 +9264,106 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4925" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="468">
   <si>
     <t>description</t>
   </si>
@@ -1447,6 +1447,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1478,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="176" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2471,8 +2495,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4021,8 +4139,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6880,6 +7151,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6887,7 +7440,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="202">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7421,49 +7974,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7788,7 +8386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8114,6 +8712,9 @@
       <c r="C5" t="s">
         <v>226</v>
       </c>
+      <c r="D5" t="s">
+        <v>460</v>
+      </c>
       <c r="E5" t="s">
         <v>338</v>
       </c>
@@ -8207,7 +8808,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>177</v>
+        <v>466</v>
       </c>
       <c r="W6" t="s">
         <v>182</v>
@@ -8262,6 +8863,9 @@
       <c r="U7" t="s">
         <v>101</v>
       </c>
+      <c r="V7" t="s">
+        <v>467</v>
+      </c>
       <c r="W7" t="s">
         <v>183</v>
       </c>
@@ -8312,6 +8916,9 @@
       <c r="U8" t="s">
         <v>102</v>
       </c>
+      <c r="V8" t="s">
+        <v>177</v>
+      </c>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -8380,7 +8987,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>462</v>
       </c>
       <c r="M10" t="s">
         <v>453</v>
@@ -8415,7 +9022,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -8447,7 +9054,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -8475,6 +9082,9 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>95</v>
       </c>
@@ -8625,7 +9235,7 @@
         <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -8642,7 +9252,7 @@
         <v>300</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -8658,6 +9268,9 @@
       <c r="E22" t="s">
         <v>301</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
@@ -8888,7 +9501,7 @@
         <v>344</v>
       </c>
       <c r="U45" t="s">
-        <v>215</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46">
@@ -8896,7 +9509,7 @@
         <v>213</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47">
@@ -8904,7 +9517,7 @@
         <v>322</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -8912,7 +9525,7 @@
         <v>341</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -8920,7 +9533,7 @@
         <v>370</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -8928,7 +9541,7 @@
         <v>304</v>
       </c>
       <c r="U50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -8936,7 +9549,7 @@
         <v>358</v>
       </c>
       <c r="U51" t="s">
-        <v>348</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -8944,7 +9557,7 @@
         <v>333</v>
       </c>
       <c r="U52" t="s">
-        <v>133</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53">
@@ -8952,7 +9565,7 @@
         <v>270</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -8960,7 +9573,7 @@
         <v>294</v>
       </c>
       <c r="U54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -8968,7 +9581,7 @@
         <v>295</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -8976,7 +9589,7 @@
         <v>296</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -8984,7 +9597,7 @@
         <v>305</v>
       </c>
       <c r="U57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -8992,7 +9605,7 @@
         <v>314</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -9000,7 +9613,7 @@
         <v>339</v>
       </c>
       <c r="U59" t="s">
-        <v>459</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -9008,7 +9621,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>216</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61">
@@ -9016,7 +9629,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>391</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62">
@@ -9024,7 +9637,7 @@
         <v>371</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63">
@@ -9032,7 +9645,7 @@
         <v>372</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64">
@@ -9040,7 +9653,7 @@
         <v>347</v>
       </c>
       <c r="U64" t="s">
-        <v>455</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -9048,7 +9661,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -9056,7 +9669,7 @@
         <v>271</v>
       </c>
       <c r="U66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -9064,7 +9677,7 @@
         <v>355</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -9072,7 +9685,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -9080,7 +9693,7 @@
         <v>412</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
@@ -9088,7 +9701,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -9096,7 +9709,7 @@
         <v>413</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -9104,7 +9717,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -9112,7 +9725,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -9120,7 +9733,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -9128,7 +9741,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -9136,7 +9749,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -9144,7 +9757,7 @@
         <v>440</v>
       </c>
       <c r="U77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -9152,7 +9765,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79">
@@ -9160,7 +9773,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80">
@@ -9168,7 +9781,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -9176,7 +9789,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>456</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82">
@@ -9184,7 +9797,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83">
@@ -9192,7 +9805,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84">
@@ -9200,7 +9813,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -9208,7 +9821,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -9216,7 +9829,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -9224,7 +9837,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88">
@@ -9232,7 +9845,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89">
@@ -9240,7 +9853,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90">
@@ -9248,7 +9861,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>385</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
@@ -9256,7 +9869,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>385</v>
       </c>
     </row>
     <row r="92">
@@ -9264,106 +9877,116 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5835" uniqueCount="468">
   <si>
     <t>description</t>
   </si>
@@ -1478,7 +1478,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="176" x14ac:knownFonts="1">
+  <fonts count="191" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2589,8 +2589,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4292,8 +4386,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7433,6 +7680,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7440,7 +7969,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="217">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8019,49 +8548,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="166" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5835" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6290" uniqueCount="468">
   <si>
     <t>description</t>
   </si>
@@ -1478,7 +1478,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="191" x14ac:knownFonts="1">
+  <fonts count="206" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2683,8 +2683,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4539,8 +4633,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -7962,6 +8209,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7969,7 +8498,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="232">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8593,49 +9122,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="178" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="179" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="181" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6290" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6746" uniqueCount="468">
   <si>
     <t>description</t>
   </si>
@@ -1478,7 +1478,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="206" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2777,8 +2777,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4786,8 +4880,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8491,6 +8738,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8498,7 +9027,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="247">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9167,49 +9696,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9991,7 +10565,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>317</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -10047,7 +10621,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -10097,7 +10671,7 @@
         <v>392</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -10135,7 +10709,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>462</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>453</v>
@@ -10170,7 +10744,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>462</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -10202,7 +10776,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -10231,7 +10805,7 @@
         <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>95</v>
@@ -10258,6 +10832,9 @@
       </c>
       <c r="I14" t="s">
         <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6746" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7204" uniqueCount="470">
   <si>
     <t>description</t>
   </si>
@@ -1471,6 +1471,12 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1484,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="221" x14ac:knownFonts="1">
+  <fonts count="236" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2871,8 +2877,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5033,8 +5133,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -9020,6 +9273,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9027,7 +9562,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="262">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9741,49 +10276,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10296,7 +10876,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>330</v>
+        <v>468</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -10370,7 +10950,7 @@
         <v>389</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>469</v>
       </c>
       <c r="H4" t="s">
         <v>353</v>
@@ -10441,7 +11021,7 @@
         <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H5" t="s">
         <v>350</v>
@@ -10503,7 +11083,7 @@
         <v>390</v>
       </c>
       <c r="F6" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -10559,7 +11139,7 @@
         <v>368</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -10615,7 +11195,7 @@
         <v>369</v>
       </c>
       <c r="F8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -10667,6 +11247,9 @@
       <c r="E9" t="s">
         <v>308</v>
       </c>
+      <c r="F9" t="s">
+        <v>326</v>
+      </c>
       <c r="I9" t="s">
         <v>392</v>
       </c>
@@ -10704,6 +11287,9 @@
       </c>
       <c r="E10" t="s">
         <v>354</v>
+      </c>
+      <c r="F10" t="s">
+        <v>327</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7204" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8128" uniqueCount="475">
   <si>
     <t>description</t>
   </si>
@@ -1477,6 +1477,21 @@
   </si>
   <si>
     <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1499,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="236" x14ac:knownFonts="1">
+  <fonts count="266" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2971,8 +2986,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5286,8 +5489,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -9555,6 +10064,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9562,7 +10635,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="292">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10321,49 +11394,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="239" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="241" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10796,7 +11959,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>471</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -10876,7 +12039,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>468</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -10950,7 +12113,7 @@
         <v>389</v>
       </c>
       <c r="F4" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H4" t="s">
         <v>353</v>
@@ -11021,7 +12184,7 @@
         <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>330</v>
+        <v>473</v>
       </c>
       <c r="H5" t="s">
         <v>350</v>
@@ -11083,7 +12246,7 @@
         <v>390</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
+        <v>469</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -11139,7 +12302,7 @@
         <v>368</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -11195,7 +12358,7 @@
         <v>369</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -11248,7 +12411,7 @@
         <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>474</v>
       </c>
       <c r="I9" t="s">
         <v>392</v>
@@ -11289,7 +12452,7 @@
         <v>354</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -11326,6 +12489,9 @@
       <c r="E11" t="s">
         <v>276</v>
       </c>
+      <c r="F11" t="s">
+        <v>325</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -11358,6 +12524,9 @@
       <c r="E12" t="s">
         <v>265</v>
       </c>
+      <c r="F12" t="s">
+        <v>326</v>
+      </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
@@ -11387,6 +12556,9 @@
       <c r="E13" t="s">
         <v>318</v>
       </c>
+      <c r="F13" t="s">
+        <v>327</v>
+      </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
@@ -11591,7 +12763,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="E23" t="s">
         <v>292</v>
@@ -11605,7 +12777,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
         <v>281</v>
@@ -11619,7 +12791,7 @@
         <v>434</v>
       </c>
       <c r="C25" t="s">
-        <v>424</v>
+        <v>228</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -11633,7 +12805,7 @@
         <v>229</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>424</v>
       </c>
       <c r="E26" t="s">
         <v>284</v>
@@ -11644,7 +12816,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>268</v>
@@ -11655,7 +12827,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>285</v>
@@ -11666,7 +12838,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>286</v>
@@ -11677,7 +12849,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>218</v>
@@ -11688,7 +12860,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>277</v>
@@ -11699,7 +12871,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>287</v>
@@ -11710,7 +12882,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>262</v>
@@ -11720,6 +12892,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" t="s">
         <v>332</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8128" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9054" uniqueCount="477">
   <si>
     <t>description</t>
   </si>
@@ -1492,6 +1492,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1505,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="266" x14ac:knownFonts="1">
+  <fonts count="296" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3174,8 +3180,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5795,8 +5989,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -10628,6 +11128,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10635,7 +11699,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="322">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11484,49 +12548,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="268" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="269" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="271" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="477" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="480" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11851,7 +13005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13243,7 +14397,7 @@
         <v>440</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78">
@@ -13251,7 +14405,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -13259,7 +14413,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
@@ -13267,7 +14421,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81">
@@ -13275,7 +14429,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -13283,7 +14437,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>456</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
@@ -13291,7 +14445,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84">
@@ -13299,7 +14453,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85">
@@ -13307,7 +14461,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -13315,7 +14469,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -13323,7 +14477,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -13331,7 +14485,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -13339,7 +14493,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90">
@@ -13347,7 +14501,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91">
@@ -13355,7 +14509,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>385</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -13363,116 +14517,121 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>385</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>465</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>165</v>
+        <v>465</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9054" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9518" uniqueCount="478">
   <si>
     <t>description</t>
   </si>
@@ -1498,6 +1498,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1508,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="296" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3368,8 +3371,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6295,8 +6392,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11692,6 +11942,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11699,7 +12231,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="337">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12638,49 +13170,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="504" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13005,7 +13582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14341,7 +14918,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71">
@@ -14349,7 +14926,7 @@
         <v>413</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -14357,7 +14934,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -14365,7 +14942,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -14373,7 +14950,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -14381,7 +14958,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -14389,7 +14966,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -14397,7 +14974,7 @@
         <v>440</v>
       </c>
       <c r="U77" t="s">
-        <v>476</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -14405,7 +14982,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79">
@@ -14413,7 +14990,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -14421,7 +14998,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -14429,7 +15006,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82">
@@ -14437,7 +15014,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -14445,7 +15022,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>456</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -14453,7 +15030,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="85">
@@ -14461,7 +15038,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86">
@@ -14469,7 +15046,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -14477,7 +15054,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -14485,7 +15062,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -14493,7 +15070,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -14501,7 +15078,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91">
@@ -14509,7 +15086,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92">
@@ -14517,121 +15094,126 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>385</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>385</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>465</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9518" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9983" uniqueCount="479">
   <si>
     <t>description</t>
   </si>
@@ -1501,6 +1501,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1511,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="311" x14ac:knownFonts="1">
+  <fonts count="326" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3465,8 +3468,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6545,8 +6642,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -12224,6 +12474,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12231,7 +12763,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="352">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13215,49 +13747,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="531" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="534" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13915,7 +14492,7 @@
         <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="H5" t="s">
         <v>350</v>
@@ -13977,7 +14554,7 @@
         <v>390</v>
       </c>
       <c r="F6" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -14033,7 +14610,7 @@
         <v>368</v>
       </c>
       <c r="F7" t="s">
-        <v>330</v>
+        <v>469</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -14089,7 +14666,7 @@
         <v>369</v>
       </c>
       <c r="F8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -14142,7 +14719,7 @@
         <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>474</v>
+        <v>331</v>
       </c>
       <c r="I9" t="s">
         <v>392</v>
@@ -14183,7 +14760,7 @@
         <v>354</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>474</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -14221,7 +14798,7 @@
         <v>276</v>
       </c>
       <c r="F11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -14256,7 +14833,7 @@
         <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -14288,7 +14865,7 @@
         <v>318</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -14318,6 +14895,9 @@
       </c>
       <c r="E14" t="s">
         <v>266</v>
+      </c>
+      <c r="F14" t="s">
+        <v>327</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9983" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10914" uniqueCount="480">
   <si>
     <t>description</t>
   </si>
@@ -1504,6 +1504,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1514,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="326" x14ac:knownFonts="1">
+  <fonts count="356" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3562,8 +3565,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6795,8 +6986,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -12756,6 +13253,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12763,7 +13824,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="382">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13792,49 +14853,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="313" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="314" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="316" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="558" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="561" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="328" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="329" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="331" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="585" fontId="333" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="588" fontId="334" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="337" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14900,7 +16051,7 @@
         <v>327</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>479</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -14929,7 +16080,7 @@
         <v>267</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -14955,7 +16106,7 @@
         <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>382</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>254</v>
@@ -14978,7 +16129,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>382</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -14995,7 +16146,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>394</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -15012,7 +16163,7 @@
         <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>394</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -15029,7 +16180,7 @@
         <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>461</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -15046,7 +16197,7 @@
         <v>300</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -15063,7 +16214,7 @@
         <v>301</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -15078,6 +16229,9 @@
       </c>
       <c r="E23" t="s">
         <v>292</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10914" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11382" uniqueCount="482">
   <si>
     <t>description</t>
   </si>
@@ -1507,6 +1507,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1520,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="356" x14ac:knownFonts="1">
+  <fonts count="371" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3753,8 +3759,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7292,8 +7392,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -13817,6 +14070,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13824,7 +14359,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="397">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14943,49 +15478,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="344" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="612" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="615" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="639" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="642" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15489,7 +16069,7 @@
         <v>375</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>480</v>
       </c>
       <c r="D3" t="s">
         <v>367</v>
@@ -15563,7 +16143,7 @@
         <v>376</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -15634,7 +16214,7 @@
         <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>481</v>
       </c>
       <c r="D5" t="s">
         <v>460</v>
@@ -15699,7 +16279,7 @@
         <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>390</v>
@@ -15755,7 +16335,7 @@
         <v>379</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
         <v>368</v>
@@ -15811,7 +16391,7 @@
         <v>380</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E8" t="s">
         <v>369</v>
@@ -15864,7 +16444,7 @@
         <v>381</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>308</v>
@@ -15905,7 +16485,7 @@
         <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
         <v>354</v>
@@ -15943,7 +16523,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="E11" t="s">
         <v>276</v>
@@ -15978,7 +16558,7 @@
         <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
         <v>265</v>
@@ -16010,7 +16590,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>343</v>
       </c>
       <c r="E13" t="s">
         <v>318</v>
@@ -16042,7 +16622,7 @@
         <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>387</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>266</v>
@@ -16074,7 +16654,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>388</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>267</v>
@@ -16100,7 +16680,7 @@
         <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="E16" t="s">
         <v>319</v>
@@ -16123,7 +16703,7 @@
         <v>426</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>388</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -16140,7 +16720,7 @@
         <v>419</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>417</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -16157,7 +16737,7 @@
         <v>359</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>298</v>
@@ -16174,7 +16754,7 @@
         <v>399</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>299</v>
@@ -16191,7 +16771,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="E21" t="s">
         <v>300</v>
@@ -16208,7 +16788,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>301</v>
@@ -16225,7 +16805,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>470</v>
+        <v>323</v>
       </c>
       <c r="E23" t="s">
         <v>292</v>
@@ -16242,7 +16822,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>281</v>
@@ -16256,7 +16836,7 @@
         <v>434</v>
       </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>470</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -16270,7 +16850,7 @@
         <v>229</v>
       </c>
       <c r="C26" t="s">
-        <v>424</v>
+        <v>227</v>
       </c>
       <c r="E26" t="s">
         <v>284</v>
@@ -16281,7 +16861,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
         <v>268</v>
@@ -16292,7 +16872,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>424</v>
       </c>
       <c r="E28" t="s">
         <v>285</v>
@@ -16303,7 +16883,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>286</v>
@@ -16314,7 +16894,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>218</v>
@@ -16325,7 +16905,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>277</v>
@@ -16336,7 +16916,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>287</v>
@@ -16347,7 +16927,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>262</v>
@@ -16358,7 +16938,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>332</v>
@@ -16368,6 +16948,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" t="s">
         <v>309</v>
       </c>
@@ -16376,6 +16959,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" t="s">
         <v>263</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298CB176-933D-5A48-8A7D-B6DDFB12964E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{298CB176-933D-5A48-8A7D-B6DDFB12964E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="31560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Test Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="485">
   <si>
     <t>description</t>
   </si>
@@ -1514,13 +1514,17 @@
   </si>
   <si>
     <t xml:space="preserve">This is a super, super long activity with all kinds of useless details because I don't know what I should put in this line so that people won't think I don't know anything about automation… Actually, I really don't understand the purpose of this line.  So here goes...               </t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1597,8 +1601,102 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1617,8 +1715,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1656,148 +1907,475 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="52">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1831,7 +2409,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1856,10 +2434,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1894,7 +2472,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1929,7 +2507,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2023,21 +2601,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2054,7 +2632,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2106,26 +2684,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2205,7 +2783,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -2285,7 +2863,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2359,7 +2937,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2430,7 +3008,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2495,7 +3073,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2551,7 +3129,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2607,7 +3185,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>348</v>
       </c>
@@ -2660,7 +3238,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2704,7 +3282,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>334</v>
       </c>
@@ -2742,7 +3320,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2777,7 +3355,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -2809,7 +3387,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2841,7 +3419,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>240</v>
       </c>
@@ -2873,7 +3451,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2899,7 +3477,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>397</v>
       </c>
@@ -2922,7 +3500,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>424</v>
       </c>
@@ -2939,7 +3517,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>417</v>
       </c>
@@ -2956,7 +3534,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>358</v>
       </c>
@@ -2973,7 +3551,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>398</v>
       </c>
@@ -2990,7 +3568,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -3007,7 +3585,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3024,7 +3602,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -3041,7 +3619,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3055,7 +3633,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>432</v>
       </c>
@@ -3069,7 +3647,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -3083,7 +3661,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>227</v>
       </c>
@@ -3094,7 +3672,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>422</v>
       </c>
@@ -3105,7 +3683,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>65</v>
       </c>
@@ -3116,7 +3694,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>66</v>
       </c>
@@ -3127,7 +3705,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>67</v>
       </c>
@@ -3138,7 +3716,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" t="s">
         <v>68</v>
       </c>
@@ -3149,7 +3727,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="C33" t="s">
         <v>69</v>
       </c>
@@ -3160,7 +3738,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="C34" t="s">
         <v>70</v>
       </c>
@@ -3171,7 +3749,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="C35" t="s">
         <v>71</v>
       </c>
@@ -3182,7 +3760,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="C36" t="s">
         <v>72</v>
       </c>
@@ -3193,7 +3771,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>309</v>
       </c>
@@ -3201,7 +3779,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>268</v>
       </c>
@@ -3209,7 +3787,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>79</v>
       </c>
@@ -3217,7 +3795,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>213</v>
       </c>
@@ -3225,7 +3803,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>290</v>
       </c>
@@ -3233,7 +3811,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>301</v>
       </c>
@@ -3241,7 +3819,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>302</v>
       </c>
@@ -3249,7 +3827,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>344</v>
       </c>
@@ -3257,7 +3835,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>343</v>
       </c>
@@ -3265,7 +3843,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>212</v>
       </c>
@@ -3273,7 +3851,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>321</v>
       </c>
@@ -3281,7 +3859,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>340</v>
       </c>
@@ -3289,7 +3867,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>369</v>
       </c>
@@ -3297,7 +3875,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>303</v>
       </c>
@@ -3305,7 +3883,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>357</v>
       </c>
@@ -3313,7 +3891,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>332</v>
       </c>
@@ -3321,480 +3899,485 @@
         <v>347</v>
       </c>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="E54" t="s">
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="E55" t="s">
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="E56" t="s">
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="E57" t="s">
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="E58" t="s">
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="E59" t="s">
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="E60" t="s">
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="E61" t="s">
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="E62" t="s">
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="E63" t="s">
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="E64" t="s">
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="E65" t="s">
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="E66" t="s">
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="E67" t="s">
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="E68" t="s">
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="E69" t="s">
         <v>411</v>
       </c>
       <c r="U69" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="E70" t="s">
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="E71" t="s">
         <v>412</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="E72" t="s">
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="E73" t="s">
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="E74" t="s">
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="E75" t="s">
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="E76" t="s">
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="E77" t="s">
         <v>438</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="E78" t="s">
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="E79" t="s">
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="E80" t="s">
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="E81" t="s">
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="E82" t="s">
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="E83" t="s">
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="E84" t="s">
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="E85" t="s">
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="E86" t="s">
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="E87" t="s">
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="E88" t="s">
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="E89" t="s">
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="E90" t="s">
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="E91" t="s">
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="E92" t="s">
         <v>279</v>
       </c>
       <c r="U92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="108" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="111" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="U112" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="112" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="U113" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="U114" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="U115" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="U116" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="116" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="131.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="13.5" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="34.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="131.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="43.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="31.83203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="19.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="15.1640625" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="10" width="13.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="13.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3825,7 +4408,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>48</v>
       </c>
@@ -3846,7 +4429,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -3863,7 +4446,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>222</v>
       </c>
@@ -3908,7 +4491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>413</v>
       </c>
@@ -3935,7 +4518,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
         <v>429</v>
@@ -3960,7 +4543,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="133" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>483</v>
       </c>
@@ -3987,7 +4570,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="3" t="s">
         <v>426</v>
@@ -4016,7 +4599,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>431</v>
@@ -4041,7 +4624,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -4066,7 +4649,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -4091,7 +4674,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>471</v>
       </c>
@@ -4122,7 +4705,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
         <v>475</v>
@@ -4151,7 +4734,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>476</v>
       </c>
@@ -4182,7 +4765,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>478</v>
       </c>
@@ -4213,7 +4796,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
         <v>480</v>
@@ -4242,7 +4825,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>481</v>
       </c>
@@ -4273,7 +4856,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4290,7 +4873,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4307,7 +4890,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4324,7 +4907,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4341,7 +4924,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4358,7 +4941,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4375,7 +4958,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4392,7 +4975,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -4409,7 +4992,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -4426,7 +5009,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -4443,7 +5026,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -4460,7 +5043,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -4477,7 +5060,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -4494,7 +5077,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4511,7 +5094,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4528,7 +5111,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4545,7 +5128,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4562,7 +5145,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4579,7 +5162,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4596,7 +5179,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4613,7 +5196,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -4630,7 +5213,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -4647,7 +5230,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -4664,7 +5247,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -4681,7 +5264,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -4698,7 +5281,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -4715,7 +5298,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -4732,7 +5315,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -4749,7 +5332,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -4766,7 +5349,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -4783,7 +5366,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -4800,7 +5383,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -4817,7 +5400,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -4834,7 +5417,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -4851,7 +5434,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -4868,7 +5451,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -4885,7 +5468,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -4902,7 +5485,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -4919,7 +5502,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -4936,7 +5519,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -4953,7 +5536,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -4970,7 +5553,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -4987,7 +5570,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5004,7 +5587,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5021,7 +5604,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5038,7 +5621,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5055,7 +5638,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5072,7 +5655,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5089,7 +5672,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5106,7 +5689,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5123,7 +5706,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5140,7 +5723,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5157,7 +5740,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5174,7 +5757,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5191,7 +5774,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5208,7 +5791,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5225,7 +5808,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5242,7 +5825,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5259,7 +5842,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5276,7 +5859,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5293,7 +5876,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5310,7 +5893,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5327,7 +5910,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5344,7 +5927,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5361,7 +5944,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5378,7 +5961,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5395,7 +5978,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5412,7 +5995,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5429,7 +6012,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5446,7 +6029,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5463,7 +6046,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5480,7 +6063,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5497,7 +6080,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5514,7 +6097,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5531,7 +6114,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5548,7 +6131,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5565,7 +6148,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5582,7 +6165,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5599,7 +6182,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5616,7 +6199,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5633,7 +6216,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -5650,7 +6233,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -5667,7 +6250,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -5684,7 +6267,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -5701,7 +6284,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -5718,7 +6301,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -5735,7 +6318,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -5752,7 +6335,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -5769,7 +6352,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -5786,7 +6369,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -5803,7 +6386,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -5820,7 +6403,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -5837,7 +6420,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -5854,7 +6437,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -5871,7 +6454,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -5888,7 +6471,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -5905,7 +6488,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -5922,7 +6505,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -5939,7 +6522,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -5956,7 +6539,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -5973,7 +6556,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -5990,7 +6573,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6007,7 +6590,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6024,7 +6607,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6041,7 +6624,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6058,7 +6641,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6075,7 +6658,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6092,7 +6675,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6109,7 +6692,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6126,7 +6709,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6143,7 +6726,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6160,7 +6743,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6177,7 +6760,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6194,7 +6777,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6211,7 +6794,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6228,7 +6811,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6245,7 +6828,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6262,7 +6845,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6279,7 +6862,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6296,7 +6879,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6313,7 +6896,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6330,7 +6913,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6347,7 +6930,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6364,7 +6947,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6381,7 +6964,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -6398,7 +6981,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -6415,7 +6998,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -6432,7 +7015,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6449,7 +7032,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -6466,7 +7049,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -6483,7 +7066,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6500,7 +7083,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6517,7 +7100,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6534,7 +7117,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -6551,7 +7134,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -6568,7 +7151,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -6585,7 +7168,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6602,7 +7185,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6619,7 +7202,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -6636,7 +7219,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -6653,7 +7236,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -6670,7 +7253,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -6687,7 +7270,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -6704,7 +7287,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -6721,7 +7304,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -6738,7 +7321,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -6755,7 +7338,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -6772,7 +7355,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -6789,7 +7372,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -6806,7 +7389,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -6823,7 +7406,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -6840,7 +7423,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -6857,7 +7440,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -6874,7 +7457,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -6891,7 +7474,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -6908,7 +7491,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -6925,7 +7508,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -6942,7 +7525,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -6959,7 +7542,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -6976,7 +7559,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -6993,7 +7576,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7010,7 +7593,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7027,7 +7610,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7044,7 +7627,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7061,7 +7644,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7078,7 +7661,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7095,7 +7678,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7112,7 +7695,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7129,7 +7712,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7146,7 +7729,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7163,7 +7746,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7180,7 +7763,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7197,7 +7780,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7214,7 +7797,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7231,7 +7814,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7248,7 +7831,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7265,7 +7848,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7282,7 +7865,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7299,7 +7882,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7316,7 +7899,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7333,7 +7916,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7350,7 +7933,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7367,7 +7950,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7384,7 +7967,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -7401,7 +7984,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -7418,7 +8001,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -7435,7 +8018,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7452,7 +8035,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -7469,7 +8052,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -7486,7 +8069,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7503,7 +8086,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7520,7 +8103,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7537,7 +8120,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -7554,7 +8137,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -7571,7 +8154,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -7588,7 +8171,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7605,7 +8188,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7622,7 +8205,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -7639,7 +8222,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -7656,7 +8239,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -7673,7 +8256,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -7690,7 +8273,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -7707,7 +8290,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -7724,7 +8307,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -7741,7 +8324,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -7758,7 +8341,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -7775,7 +8358,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -7792,7 +8375,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -7809,7 +8392,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -7826,7 +8409,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -7843,7 +8426,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -7860,7 +8443,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -7877,7 +8460,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -7894,7 +8477,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -7911,7 +8494,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -7928,7 +8511,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -7945,7 +8528,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -7962,7 +8545,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -7979,7 +8562,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -7996,7 +8579,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8013,7 +8596,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8030,7 +8613,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8047,7 +8630,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8064,7 +8647,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8081,7 +8664,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8098,7 +8681,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8115,7 +8698,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8132,7 +8715,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8149,7 +8732,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8166,7 +8749,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8183,7 +8766,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8200,7 +8783,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8217,7 +8800,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8234,7 +8817,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8251,7 +8834,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8268,7 +8851,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8285,7 +8868,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8302,7 +8885,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8319,7 +8902,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8336,7 +8919,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8353,7 +8936,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8370,7 +8953,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8387,7 +8970,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -8404,7 +8987,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -8421,7 +9004,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -8438,7 +9021,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8455,7 +9038,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -8472,7 +9055,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -8489,7 +9072,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8506,7 +9089,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8523,7 +9106,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -8540,7 +9123,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -8557,7 +9140,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -8574,7 +9157,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8591,7 +9174,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8608,7 +9191,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8625,7 +9208,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -8642,7 +9225,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -8659,7 +9242,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -8676,7 +9259,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -8693,7 +9276,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -8710,7 +9293,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -8727,7 +9310,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -8744,7 +9327,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -8761,7 +9344,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -8778,7 +9361,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -8795,7 +9378,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -8812,7 +9395,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -8829,7 +9412,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -8846,7 +9429,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -8863,7 +9446,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -8880,7 +9463,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -8897,7 +9480,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -8914,7 +9497,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -8931,7 +9514,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -8948,7 +9531,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -8965,7 +9548,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -8982,7 +9565,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -8999,7 +9582,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9016,7 +9599,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9033,7 +9616,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9050,7 +9633,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9067,7 +9650,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9084,7 +9667,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -9101,7 +9684,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -9118,7 +9701,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -9135,7 +9718,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -9152,7 +9735,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -9169,7 +9752,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -9186,7 +9769,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -9203,7 +9786,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -9220,7 +9803,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -9237,7 +9820,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -9254,7 +9837,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -9271,7 +9854,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -9288,7 +9871,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -9305,7 +9888,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -9322,7 +9905,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -9339,7 +9922,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -9356,7 +9939,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -9373,7 +9956,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -9390,7 +9973,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -9407,7 +9990,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -9424,7 +10007,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -9441,7 +10024,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -9458,7 +10041,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -9475,7 +10058,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -9492,7 +10075,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -9509,7 +10092,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -9526,7 +10109,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -9543,7 +10126,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -9560,7 +10143,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -9577,7 +10160,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9594,7 +10177,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9611,7 +10194,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -9628,7 +10211,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -9645,7 +10228,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -9662,7 +10245,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -9679,7 +10262,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -9696,7 +10279,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -9713,7 +10296,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -9730,7 +10313,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -9747,7 +10330,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -9764,7 +10347,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -9781,7 +10364,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -9798,7 +10381,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -9815,7 +10398,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -9832,7 +10415,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -9849,7 +10432,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -9866,7 +10449,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -9883,7 +10466,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -9900,7 +10483,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -9917,7 +10500,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -9934,7 +10517,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -9951,7 +10534,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -9968,7 +10551,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -9985,7 +10568,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -10002,7 +10585,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -10019,7 +10602,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -10036,7 +10619,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -10053,7 +10636,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -10070,7 +10653,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -10087,7 +10670,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -10104,7 +10687,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -10121,7 +10704,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -10138,7 +10721,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -10155,7 +10738,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -10172,7 +10755,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -10189,7 +10772,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -10206,7 +10789,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -10223,7 +10806,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -10240,7 +10823,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -10257,7 +10840,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -10274,7 +10857,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -10291,7 +10874,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -10308,7 +10891,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -10325,7 +10908,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -10342,7 +10925,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -10359,7 +10942,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -10376,7 +10959,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -10393,7 +10976,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -10410,7 +10993,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -10427,7 +11010,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -10444,7 +11027,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -10461,7 +11044,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -10478,7 +11061,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -10495,7 +11078,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -10512,7 +11095,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -10529,7 +11112,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -10546,7 +11129,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -10563,7 +11146,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -10580,7 +11163,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10597,7 +11180,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10614,7 +11197,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -10631,7 +11214,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -10648,7 +11231,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -10665,7 +11248,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -10682,7 +11265,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -10699,7 +11282,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -10716,7 +11299,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -10733,7 +11316,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -10750,7 +11333,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -10767,7 +11350,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -10784,7 +11367,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -10801,7 +11384,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -10818,7 +11401,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -10835,7 +11418,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -10852,7 +11435,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -10869,7 +11452,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -10886,7 +11469,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -10903,7 +11486,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -10920,7 +11503,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -10937,7 +11520,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -10954,7 +11537,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -10971,7 +11554,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -10988,7 +11571,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -11005,7 +11588,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -11022,7 +11605,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -11039,7 +11622,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -11056,7 +11639,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -11073,7 +11656,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -11090,7 +11673,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -11107,7 +11690,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -11124,7 +11707,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -11141,7 +11724,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -11158,7 +11741,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -11175,7 +11758,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -11192,7 +11775,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -11209,7 +11792,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -11226,7 +11809,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -11243,7 +11826,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -11260,7 +11843,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -11277,7 +11860,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -11294,7 +11877,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -11311,7 +11894,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -11328,7 +11911,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -11345,7 +11928,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -11362,7 +11945,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -11379,7 +11962,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -11396,7 +11979,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -11413,7 +11996,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -11430,7 +12013,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -11447,7 +12030,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -11464,7 +12047,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -11481,7 +12064,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -11498,7 +12081,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -11515,7 +12098,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -11532,7 +12115,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -11549,7 +12132,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -11566,7 +12149,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -11583,7 +12166,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11600,7 +12183,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11617,7 +12200,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -11634,7 +12217,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -11651,7 +12234,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -11668,7 +12251,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -11685,7 +12268,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -11702,7 +12285,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -11719,7 +12302,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -11736,7 +12319,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -11753,7 +12336,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -11770,7 +12353,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -11787,7 +12370,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -11804,7 +12387,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -11821,7 +12404,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -11838,7 +12421,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -11855,7 +12438,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -11872,7 +12455,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -11889,7 +12472,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -11906,7 +12489,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -11923,7 +12506,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -11940,7 +12523,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -11957,7 +12540,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -11974,7 +12557,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -11991,7 +12574,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -12008,7 +12591,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -12025,7 +12608,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -12042,7 +12625,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -12059,7 +12642,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -12076,7 +12659,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -12093,7 +12676,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -12110,7 +12693,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -12127,7 +12710,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -12144,7 +12727,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -12161,7 +12744,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -12178,7 +12761,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -12195,7 +12778,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -12212,7 +12795,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -12229,7 +12812,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -12246,7 +12829,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -12263,7 +12846,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -12280,7 +12863,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -12297,7 +12880,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -12314,7 +12897,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -12331,7 +12914,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -12348,7 +12931,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -12365,7 +12948,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -12382,7 +12965,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -12399,7 +12982,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -12416,7 +12999,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -12433,7 +13016,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -12450,7 +13033,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -12467,7 +13050,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -12484,7 +13067,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -12501,7 +13084,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -12518,7 +13101,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -12535,7 +13118,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -12552,7 +13135,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -12569,7 +13152,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -12586,7 +13169,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12603,7 +13186,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12620,7 +13203,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -12637,7 +13220,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -12654,7 +13237,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -12671,7 +13254,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -12688,7 +13271,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -12705,7 +13288,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -12722,7 +13305,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -12739,7 +13322,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -12756,7 +13339,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -12773,7 +13356,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -12790,7 +13373,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -12807,7 +13390,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -12824,7 +13407,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -12841,7 +13424,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -12858,7 +13441,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -12875,7 +13458,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -12892,7 +13475,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -12909,7 +13492,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -12926,7 +13509,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -12943,7 +13526,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -12960,7 +13543,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -12977,7 +13560,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -12994,7 +13577,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -13011,7 +13594,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -13028,7 +13611,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -13045,7 +13628,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -13062,7 +13645,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -13079,7 +13662,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -13096,7 +13679,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -13113,7 +13696,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -13130,7 +13713,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -13147,7 +13730,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -13164,7 +13747,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -13181,7 +13764,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -13198,7 +13781,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -13215,7 +13798,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -13232,7 +13815,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -13249,7 +13832,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -13266,7 +13849,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -13283,7 +13866,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -13300,7 +13883,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -13317,7 +13900,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -13334,7 +13917,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -13351,7 +13934,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -13368,7 +13951,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -13385,7 +13968,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -13402,7 +13985,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -13419,7 +14002,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -13436,7 +14019,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -13453,7 +14036,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -13470,7 +14053,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -13487,7 +14070,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -13504,7 +14087,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -13521,7 +14104,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -13538,7 +14121,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -13555,7 +14138,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -13572,7 +14155,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13589,7 +14172,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13606,7 +14189,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13623,7 +14206,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -13640,7 +14223,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -13657,7 +14240,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -13674,7 +14257,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -13691,7 +14274,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -13708,7 +14291,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -13725,7 +14308,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -13742,7 +14325,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -13759,7 +14342,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -13776,7 +14359,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -13793,7 +14376,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -13810,7 +14393,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -13827,7 +14410,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -13844,7 +14427,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -13861,7 +14444,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -13878,7 +14461,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -13895,7 +14478,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -13912,7 +14495,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -13929,7 +14512,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -13946,7 +14529,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -13963,7 +14546,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -13980,7 +14563,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -13997,7 +14580,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -14014,7 +14597,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -14031,7 +14614,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -14048,7 +14631,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -14065,7 +14648,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -14082,7 +14665,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -14099,7 +14682,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -14116,7 +14699,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -14133,7 +14716,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -14150,7 +14733,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -14167,7 +14750,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -14184,7 +14767,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -14201,7 +14784,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -14218,7 +14801,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -14235,7 +14818,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -14252,7 +14835,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -14269,7 +14852,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -14286,7 +14869,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -14303,7 +14886,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -14320,7 +14903,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -14337,7 +14920,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -14354,7 +14937,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -14371,7 +14954,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -14388,7 +14971,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -14405,7 +14988,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -14422,7 +15005,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -14439,7 +15022,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -14456,7 +15039,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -14473,7 +15056,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -14490,7 +15073,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -14507,7 +15090,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -14524,7 +15107,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -14541,7 +15124,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -14558,7 +15141,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -14575,7 +15158,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14592,7 +15175,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14609,7 +15192,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14626,7 +15209,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -14643,7 +15226,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -14660,7 +15243,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -14677,7 +15260,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -14694,7 +15277,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -14711,7 +15294,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -14728,7 +15311,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -14745,7 +15328,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -14762,7 +15345,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -14779,7 +15362,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -14796,7 +15379,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -14813,7 +15396,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -14830,7 +15413,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -14847,7 +15430,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -14864,7 +15447,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -14881,7 +15464,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -14898,7 +15481,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -14915,7 +15498,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -14932,7 +15515,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -14949,7 +15532,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="27"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -14966,7 +15549,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="27"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -14983,7 +15566,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="27"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -15000,360 +15583,360 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15361,24 +15944,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C700" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{298CB176-933D-5A48-8A7D-B6DDFB12964E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5580B47B-4CE2-4747-B7BE-D65D00DB0A88}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView xWindow="0" yWindow="16220" windowWidth="51200" windowHeight="15780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
-    <sheet name="Test Scenario" r:id="rId2" sheetId="2"/>
+    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
+    <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -49,7 +49,7 @@
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="486">
   <si>
     <t>description</t>
   </si>
@@ -1517,14 +1517,16 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1601,102 +1603,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="823C3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="31">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1715,161 +1623,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6D7D7"/>
-        <bgColor rgb="E6D7D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1907,475 +1662,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="BEC8CD"/>
-      </left>
-      <right style="thin">
-        <color rgb="BEC8CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="BEC8CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="BEC8CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDC3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDC3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDC3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDC3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2409,7 +1837,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2434,10 +1862,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2472,7 +1900,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2507,7 +1935,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2601,21 +2029,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2632,7 +2060,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2684,26 +2112,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z117"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2783,7 +2211,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -2863,7 +2291,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2937,7 +2365,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -3008,7 +2436,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3073,7 +2501,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -3129,7 +2557,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3185,7 +2613,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>348</v>
       </c>
@@ -3238,7 +2666,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3282,7 +2710,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>334</v>
       </c>
@@ -3320,7 +2748,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -3355,7 +2783,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -3387,7 +2815,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -3419,7 +2847,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>240</v>
       </c>
@@ -3451,7 +2879,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -3477,7 +2905,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>397</v>
       </c>
@@ -3500,7 +2928,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>424</v>
       </c>
@@ -3517,7 +2945,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>417</v>
       </c>
@@ -3534,7 +2962,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>358</v>
       </c>
@@ -3551,7 +2979,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>398</v>
       </c>
@@ -3568,7 +2996,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -3585,7 +3013,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3602,7 +3030,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -3619,7 +3047,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3633,7 +3061,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>432</v>
       </c>
@@ -3647,7 +3075,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -3661,7 +3089,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>227</v>
       </c>
@@ -3672,7 +3100,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>422</v>
       </c>
@@ -3683,7 +3111,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>65</v>
       </c>
@@ -3694,7 +3122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>66</v>
       </c>
@@ -3705,7 +3133,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>67</v>
       </c>
@@ -3716,7 +3144,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>68</v>
       </c>
@@ -3727,7 +3155,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>69</v>
       </c>
@@ -3738,7 +3166,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>70</v>
       </c>
@@ -3749,7 +3177,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>71</v>
       </c>
@@ -3760,7 +3188,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>72</v>
       </c>
@@ -3771,7 +3199,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>309</v>
       </c>
@@ -3779,7 +3207,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>268</v>
       </c>
@@ -3787,7 +3215,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
         <v>79</v>
       </c>
@@ -3795,7 +3223,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
         <v>213</v>
       </c>
@@ -3803,7 +3231,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>290</v>
       </c>
@@ -3811,7 +3239,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
         <v>301</v>
       </c>
@@ -3819,7 +3247,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
         <v>302</v>
       </c>
@@ -3827,7 +3255,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
         <v>344</v>
       </c>
@@ -3835,7 +3263,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
         <v>343</v>
       </c>
@@ -3843,7 +3271,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>212</v>
       </c>
@@ -3851,7 +3279,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>321</v>
       </c>
@@ -3859,7 +3287,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>340</v>
       </c>
@@ -3867,7 +3295,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>369</v>
       </c>
@@ -3875,7 +3303,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
         <v>303</v>
       </c>
@@ -3883,7 +3311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
         <v>357</v>
       </c>
@@ -3891,7 +3319,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
         <v>332</v>
       </c>
@@ -3899,7 +3327,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
         <v>269</v>
       </c>
@@ -3907,7 +3335,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
         <v>293</v>
       </c>
@@ -3915,7 +3343,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
         <v>294</v>
       </c>
@@ -3923,7 +3351,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
         <v>295</v>
       </c>
@@ -3931,7 +3359,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
         <v>304</v>
       </c>
@@ -3939,7 +3367,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
         <v>313</v>
       </c>
@@ -3947,7 +3375,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
         <v>338</v>
       </c>
@@ -3955,7 +3383,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
         <v>310</v>
       </c>
@@ -3963,7 +3391,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
         <v>311</v>
       </c>
@@ -3971,7 +3399,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
         <v>370</v>
       </c>
@@ -3979,7 +3407,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
         <v>371</v>
       </c>
@@ -3987,7 +3415,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
         <v>346</v>
       </c>
@@ -3995,7 +3423,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
         <v>314</v>
       </c>
@@ -4003,7 +3431,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
         <v>270</v>
       </c>
@@ -4011,7 +3439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
         <v>354</v>
       </c>
@@ -4019,7 +3447,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
         <v>315</v>
       </c>
@@ -4027,7 +3455,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
         <v>411</v>
       </c>
@@ -4035,7 +3463,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
         <v>305</v>
       </c>
@@ -4043,7 +3471,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
         <v>412</v>
       </c>
@@ -4051,7 +3479,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
         <v>263</v>
       </c>
@@ -4059,7 +3487,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
         <v>345</v>
       </c>
@@ -4067,7 +3495,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
         <v>281</v>
       </c>
@@ -4075,7 +3503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
         <v>287</v>
       </c>
@@ -4083,7 +3511,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
         <v>292</v>
       </c>
@@ -4091,7 +3519,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
         <v>438</v>
       </c>
@@ -4099,7 +3527,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
         <v>333</v>
       </c>
@@ -4107,7 +3535,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
         <v>271</v>
       </c>
@@ -4115,7 +3543,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
         <v>282</v>
       </c>
@@ -4123,7 +3551,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
         <v>288</v>
       </c>
@@ -4131,7 +3559,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
         <v>277</v>
       </c>
@@ -4139,7 +3567,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
         <v>272</v>
       </c>
@@ -4147,7 +3575,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
         <v>289</v>
       </c>
@@ -4155,7 +3583,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
         <v>273</v>
       </c>
@@ -4163,7 +3591,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
         <v>274</v>
       </c>
@@ -4171,7 +3599,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
         <v>306</v>
       </c>
@@ -4179,7 +3607,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
         <v>312</v>
       </c>
@@ -4187,7 +3615,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
         <v>296</v>
       </c>
@@ -4195,7 +3623,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
         <v>341</v>
       </c>
@@ -4203,7 +3631,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
         <v>278</v>
       </c>
@@ -4211,7 +3639,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E92" t="s">
         <v>279</v>
       </c>
@@ -4219,165 +3647,163 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U93" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U94" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U95" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U96" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U97" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U98" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U99" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U100" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U101" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U102" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U103" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U104" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U105" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U106" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U107" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U108" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U109" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U110" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U111" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U112" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U113" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U114" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U115" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U116" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
-      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="34.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="131.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="43.83203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="31.83203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="19.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="15.1640625" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="10" width="13.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="23" width="13.5" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
-    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="34.83203125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="72.1640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="18.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.5" style="23" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4408,7 +3834,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>48</v>
       </c>
@@ -4429,7 +3855,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4446,7 +3872,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>222</v>
       </c>
@@ -4491,7 +3917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>413</v>
       </c>
@@ -4518,7 +3944,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
         <v>429</v>
@@ -4543,11 +3969,11 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row customHeight="1" ht="133" r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>430</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -4570,7 +3996,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="3" t="s">
         <v>426</v>
@@ -4599,7 +4025,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>431</v>
@@ -4624,7 +4050,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -4649,7 +4075,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -4674,28 +4100,20 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>472</v>
-      </c>
+    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
-        <v>398</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>474</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="22"/>
@@ -4705,10 +4123,12 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>471</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>398</v>
@@ -4734,12 +4154,10 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>476</v>
-      </c>
+    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>398</v>
@@ -4765,12 +4183,12 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>398</v>
@@ -4796,10 +4214,12 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>478</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>398</v>
@@ -4825,12 +4245,10 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>481</v>
-      </c>
+    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>398</v>
@@ -4856,14 +4274,28 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>474</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="22"/>
@@ -4873,7 +4305,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4890,7 +4322,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4907,7 +4339,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4924,7 +4356,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4941,7 +4373,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4958,7 +4390,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4975,7 +4407,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -4992,7 +4424,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5009,7 +4441,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5026,9 +4458,9 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="13"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -5043,9 +4475,9 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
-      <c r="B29" s="5"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="13"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -5060,7 +4492,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5077,7 +4509,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5094,7 +4526,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5111,7 +4543,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5128,7 +4560,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5145,7 +4577,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5162,7 +4594,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5179,7 +4611,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5196,7 +4628,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5213,7 +4645,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5230,7 +4662,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5247,7 +4679,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5264,7 +4696,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5281,7 +4713,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5298,7 +4730,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5315,7 +4747,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5332,7 +4764,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5349,7 +4781,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5366,7 +4798,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5383,7 +4815,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5400,7 +4832,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5417,7 +4849,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5434,7 +4866,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5451,7 +4883,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5468,7 +4900,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5485,7 +4917,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5502,7 +4934,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5519,7 +4951,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5536,7 +4968,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5553,7 +4985,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5570,7 +5002,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5587,7 +5019,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5604,7 +5036,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5621,7 +5053,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5638,7 +5070,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5655,7 +5087,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5672,7 +5104,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5689,7 +5121,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5706,7 +5138,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5723,7 +5155,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5740,7 +5172,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5757,7 +5189,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5774,7 +5206,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5791,7 +5223,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5808,7 +5240,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5825,7 +5257,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5842,7 +5274,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5859,7 +5291,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5876,7 +5308,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5893,7 +5325,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5910,7 +5342,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5927,7 +5359,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5944,7 +5376,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5961,7 +5393,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5978,7 +5410,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5995,7 +5427,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6012,7 +5444,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6029,7 +5461,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6046,7 +5478,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6063,7 +5495,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6080,7 +5512,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6097,7 +5529,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6114,7 +5546,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6131,7 +5563,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6148,7 +5580,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6165,7 +5597,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6182,7 +5614,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6199,7 +5631,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6216,7 +5648,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6233,7 +5665,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6250,7 +5682,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6267,7 +5699,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -6284,7 +5716,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -6301,7 +5733,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -6318,7 +5750,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -6335,7 +5767,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -6352,7 +5784,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -6369,7 +5801,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -6386,7 +5818,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6403,7 +5835,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6420,7 +5852,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6437,7 +5869,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6454,7 +5886,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6471,7 +5903,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6488,7 +5920,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6505,7 +5937,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6522,7 +5954,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6539,7 +5971,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6556,7 +5988,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6573,7 +6005,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6590,7 +6022,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6607,7 +6039,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6624,7 +6056,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6641,7 +6073,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6658,7 +6090,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6675,7 +6107,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6692,7 +6124,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6709,7 +6141,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6726,7 +6158,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6743,7 +6175,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6760,7 +6192,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6777,7 +6209,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6794,7 +6226,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6811,7 +6243,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6828,7 +6260,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6845,7 +6277,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6862,7 +6294,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6879,7 +6311,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6896,7 +6328,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6913,7 +6345,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6930,7 +6362,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6947,7 +6379,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6964,7 +6396,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -6981,7 +6413,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -6998,7 +6430,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -7015,7 +6447,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -7032,7 +6464,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -7049,7 +6481,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -7066,7 +6498,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -7083,7 +6515,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -7100,7 +6532,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -7117,7 +6549,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -7134,7 +6566,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -7151,7 +6583,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -7168,7 +6600,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -7185,7 +6617,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -7202,7 +6634,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -7219,7 +6651,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -7236,7 +6668,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -7253,7 +6685,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -7270,7 +6702,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -7287,7 +6719,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -7304,7 +6736,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -7321,7 +6753,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -7338,7 +6770,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -7355,7 +6787,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -7372,7 +6804,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -7389,7 +6821,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7406,7 +6838,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7423,7 +6855,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7440,7 +6872,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7457,7 +6889,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7474,7 +6906,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7491,7 +6923,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7508,7 +6940,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7525,7 +6957,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7542,7 +6974,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7559,7 +6991,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7576,7 +7008,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7593,7 +7025,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7610,7 +7042,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7627,7 +7059,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7644,7 +7076,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7661,7 +7093,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7678,7 +7110,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7695,7 +7127,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7712,7 +7144,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7729,7 +7161,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7746,7 +7178,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7763,7 +7195,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7780,7 +7212,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7797,7 +7229,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7814,7 +7246,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7831,7 +7263,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7848,7 +7280,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7865,7 +7297,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7882,7 +7314,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7899,7 +7331,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7916,7 +7348,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7933,7 +7365,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7950,7 +7382,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7967,7 +7399,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -7984,7 +7416,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -8001,7 +7433,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -8018,7 +7450,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -8035,7 +7467,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -8052,7 +7484,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -8069,7 +7501,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -8086,7 +7518,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -8103,7 +7535,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -8120,7 +7552,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -8137,7 +7569,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -8154,7 +7586,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -8171,7 +7603,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -8188,7 +7620,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -8205,7 +7637,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -8222,7 +7654,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -8239,7 +7671,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -8256,7 +7688,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -8273,7 +7705,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -8290,7 +7722,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -8307,7 +7739,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -8324,7 +7756,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -8341,7 +7773,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -8358,7 +7790,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -8375,7 +7807,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -8392,7 +7824,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8409,7 +7841,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8426,7 +7858,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8443,7 +7875,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8460,7 +7892,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8477,7 +7909,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8494,7 +7926,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8511,7 +7943,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8528,7 +7960,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8545,7 +7977,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8562,7 +7994,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8579,7 +8011,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8596,7 +8028,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8613,7 +8045,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8630,7 +8062,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8647,7 +8079,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8664,7 +8096,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8681,7 +8113,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8698,7 +8130,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8715,7 +8147,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8732,7 +8164,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8749,7 +8181,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8766,7 +8198,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8783,7 +8215,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8800,7 +8232,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8817,7 +8249,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8834,7 +8266,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8851,7 +8283,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8868,7 +8300,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8885,7 +8317,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8902,7 +8334,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8919,7 +8351,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8936,7 +8368,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8953,7 +8385,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8970,7 +8402,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -8987,7 +8419,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -9004,7 +8436,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -9021,7 +8453,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -9038,7 +8470,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -9055,7 +8487,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -9072,7 +8504,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -9089,7 +8521,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -9106,7 +8538,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -9123,7 +8555,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -9140,7 +8572,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -9157,7 +8589,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -9174,7 +8606,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -9191,7 +8623,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -9208,7 +8640,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -9225,7 +8657,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -9242,7 +8674,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -9259,7 +8691,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -9276,7 +8708,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -9293,7 +8725,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -9310,7 +8742,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -9327,7 +8759,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -9344,7 +8776,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -9361,7 +8793,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -9378,7 +8810,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -9395,7 +8827,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9412,7 +8844,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9429,7 +8861,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9446,7 +8878,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9463,7 +8895,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9480,7 +8912,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9497,7 +8929,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9514,7 +8946,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9531,7 +8963,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9548,7 +8980,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9565,7 +8997,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9582,7 +9014,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9599,7 +9031,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9616,7 +9048,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9633,7 +9065,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9650,7 +9082,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9667,7 +9099,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -9684,7 +9116,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -9701,7 +9133,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -9718,7 +9150,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -9735,7 +9167,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -9752,7 +9184,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -9769,7 +9201,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -9786,7 +9218,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -9803,7 +9235,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -9820,7 +9252,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -9837,7 +9269,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -9854,7 +9286,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -9871,7 +9303,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -9888,7 +9320,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -9905,7 +9337,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -9922,7 +9354,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -9939,7 +9371,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -9956,7 +9388,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -9973,7 +9405,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -9990,7 +9422,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -10007,7 +9439,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -10024,7 +9456,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -10041,7 +9473,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -10058,7 +9490,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -10075,7 +9507,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -10092,7 +9524,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -10109,7 +9541,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -10126,7 +9558,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -10143,7 +9575,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -10160,7 +9592,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -10177,7 +9609,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -10194,7 +9626,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -10211,7 +9643,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -10228,7 +9660,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -10245,7 +9677,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -10262,7 +9694,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -10279,7 +9711,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -10296,7 +9728,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -10313,7 +9745,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -10330,7 +9762,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -10347,7 +9779,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -10364,7 +9796,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -10381,7 +9813,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -10398,7 +9830,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -10415,7 +9847,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -10432,7 +9864,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -10449,7 +9881,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -10466,7 +9898,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -10483,7 +9915,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -10500,7 +9932,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -10517,7 +9949,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -10534,7 +9966,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -10551,7 +9983,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -10568,7 +10000,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -10585,7 +10017,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -10602,7 +10034,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -10619,7 +10051,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -10636,7 +10068,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -10653,7 +10085,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -10670,7 +10102,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -10687,7 +10119,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -10704,7 +10136,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -10721,7 +10153,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -10738,7 +10170,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -10755,7 +10187,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -10772,7 +10204,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -10789,7 +10221,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -10806,7 +10238,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -10823,7 +10255,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -10840,7 +10272,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -10857,7 +10289,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -10874,7 +10306,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -10891,7 +10323,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -10908,7 +10340,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -10925,7 +10357,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -10942,7 +10374,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -10959,7 +10391,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -10976,7 +10408,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -10993,7 +10425,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -11010,7 +10442,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -11027,7 +10459,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -11044,7 +10476,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -11061,7 +10493,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -11078,7 +10510,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -11095,7 +10527,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -11112,7 +10544,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -11129,7 +10561,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -11146,7 +10578,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -11163,7 +10595,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -11180,7 +10612,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -11197,7 +10629,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -11214,7 +10646,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -11231,7 +10663,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -11248,7 +10680,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -11265,7 +10697,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -11282,7 +10714,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -11299,7 +10731,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -11316,7 +10748,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -11333,7 +10765,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -11350,7 +10782,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -11367,7 +10799,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -11384,7 +10816,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -11401,7 +10833,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -11418,7 +10850,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -11435,7 +10867,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -11452,7 +10884,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -11469,7 +10901,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -11486,7 +10918,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -11503,7 +10935,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -11520,7 +10952,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -11537,7 +10969,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -11554,7 +10986,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -11571,7 +11003,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -11588,7 +11020,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -11605,7 +11037,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -11622,7 +11054,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -11639,7 +11071,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -11656,7 +11088,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -11673,7 +11105,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -11690,7 +11122,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -11707,7 +11139,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -11724,7 +11156,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -11741,7 +11173,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -11758,7 +11190,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -11775,7 +11207,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -11792,7 +11224,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -11809,7 +11241,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -11826,7 +11258,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -11843,7 +11275,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -11860,7 +11292,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -11877,7 +11309,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -11894,7 +11326,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -11911,7 +11343,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -11928,7 +11360,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -11945,7 +11377,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -11962,7 +11394,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -11979,7 +11411,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -11996,7 +11428,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -12013,7 +11445,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -12030,7 +11462,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -12047,7 +11479,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -12064,7 +11496,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -12081,7 +11513,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -12098,7 +11530,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -12115,7 +11547,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -12132,7 +11564,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -12149,7 +11581,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -12166,7 +11598,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -12183,7 +11615,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -12200,7 +11632,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -12217,7 +11649,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -12234,7 +11666,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -12251,7 +11683,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -12268,7 +11700,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -12285,7 +11717,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -12302,7 +11734,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -12319,7 +11751,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -12336,7 +11768,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -12353,7 +11785,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -12370,7 +11802,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -12387,7 +11819,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -12404,7 +11836,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -12421,7 +11853,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -12438,7 +11870,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -12455,7 +11887,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -12472,7 +11904,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -12489,7 +11921,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -12506,7 +11938,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -12523,7 +11955,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -12540,7 +11972,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -12557,7 +11989,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -12574,7 +12006,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -12591,7 +12023,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -12608,7 +12040,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -12625,7 +12057,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -12642,7 +12074,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -12659,7 +12091,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -12676,7 +12108,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -12693,7 +12125,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -12710,7 +12142,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -12727,7 +12159,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -12744,7 +12176,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -12761,7 +12193,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -12778,7 +12210,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -12795,7 +12227,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -12812,7 +12244,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -12829,7 +12261,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -12846,7 +12278,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -12863,7 +12295,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -12880,7 +12312,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -12897,7 +12329,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -12914,7 +12346,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -12931,7 +12363,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -12948,7 +12380,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -12965,7 +12397,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -12982,7 +12414,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -12999,7 +12431,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -13016,7 +12448,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -13033,7 +12465,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -13050,7 +12482,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -13067,7 +12499,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -13084,7 +12516,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -13101,7 +12533,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -13118,7 +12550,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -13135,7 +12567,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -13152,7 +12584,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -13169,7 +12601,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -13186,7 +12618,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -13203,7 +12635,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -13220,7 +12652,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -13237,7 +12669,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -13254,7 +12686,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -13271,7 +12703,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -13288,7 +12720,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -13305,7 +12737,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -13322,7 +12754,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -13339,7 +12771,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -13356,7 +12788,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -13373,7 +12805,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -13390,7 +12822,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -13407,7 +12839,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -13424,7 +12856,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -13441,7 +12873,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -13458,7 +12890,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -13475,7 +12907,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -13492,7 +12924,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -13509,7 +12941,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -13526,7 +12958,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -13543,7 +12975,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -13560,7 +12992,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -13577,7 +13009,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -13594,7 +13026,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -13611,7 +13043,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -13628,7 +13060,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -13645,7 +13077,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -13662,7 +13094,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -13679,7 +13111,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -13696,7 +13128,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -13713,7 +13145,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -13730,7 +13162,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -13747,7 +13179,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -13764,7 +13196,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -13781,7 +13213,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -13798,7 +13230,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -13815,7 +13247,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -13832,7 +13264,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -13849,7 +13281,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -13866,7 +13298,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -13883,7 +13315,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -13900,7 +13332,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -13917,7 +13349,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -13934,7 +13366,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -13951,7 +13383,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -13968,7 +13400,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -13985,7 +13417,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -14002,7 +13434,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -14019,7 +13451,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -14036,7 +13468,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -14053,7 +13485,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -14070,7 +13502,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -14087,7 +13519,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -14104,7 +13536,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -14121,7 +13553,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -14138,7 +13570,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -14155,7 +13587,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -14172,7 +13604,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -14189,7 +13621,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -14206,7 +13638,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -14223,7 +13655,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -14240,7 +13672,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -14257,7 +13689,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -14274,7 +13706,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -14291,7 +13723,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -14308,7 +13740,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -14325,7 +13757,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -14342,7 +13774,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -14359,7 +13791,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -14376,7 +13808,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -14393,7 +13825,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -14410,7 +13842,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -14427,7 +13859,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -14444,7 +13876,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -14461,7 +13893,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -14478,7 +13910,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -14495,7 +13927,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -14512,7 +13944,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -14529,7 +13961,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -14546,7 +13978,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -14563,7 +13995,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -14580,7 +14012,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -14597,7 +14029,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -14614,7 +14046,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -14631,7 +14063,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -14648,7 +14080,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -14665,7 +14097,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -14682,7 +14114,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -14699,7 +14131,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -14716,7 +14148,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -14733,7 +14165,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -14750,7 +14182,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -14767,7 +14199,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -14784,7 +14216,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -14801,7 +14233,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -14818,7 +14250,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -14835,7 +14267,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -14852,7 +14284,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -14869,7 +14301,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -14886,7 +14318,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -14903,7 +14335,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -14920,7 +14352,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -14937,7 +14369,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -14954,7 +14386,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -14971,7 +14403,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -14988,7 +14420,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -15005,7 +14437,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -15022,7 +14454,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -15039,7 +14471,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -15056,7 +14488,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -15073,7 +14505,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -15090,7 +14522,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -15107,7 +14539,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -15124,7 +14556,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -15141,7 +14573,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -15158,7 +14590,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -15175,7 +14607,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -15192,7 +14624,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -15209,7 +14641,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -15226,7 +14658,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -15243,7 +14675,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -15260,7 +14692,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -15277,7 +14709,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -15294,7 +14726,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -15311,7 +14743,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -15328,7 +14760,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -15345,7 +14777,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -15362,7 +14794,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -15379,7 +14811,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -15396,7 +14828,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -15413,7 +14845,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -15430,7 +14862,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -15447,7 +14879,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -15464,7 +14896,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -15481,7 +14913,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -15498,7 +14930,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -15515,7 +14947,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -15532,7 +14964,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="27"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -15549,7 +14981,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="27"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -15566,7 +14998,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="27"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -15583,360 +15015,377 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
+    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A649" s="27"/>
+      <c r="B649" s="5"/>
+      <c r="C649" s="13"/>
+      <c r="D649" s="7"/>
+      <c r="E649" s="7"/>
+      <c r="F649" s="7"/>
+      <c r="G649" s="7"/>
+      <c r="H649" s="7"/>
+      <c r="I649" s="7"/>
+      <c r="J649" s="22"/>
+      <c r="K649" s="3"/>
+      <c r="L649" s="15"/>
+      <c r="M649" s="12"/>
+      <c r="N649" s="15"/>
+      <c r="O649" s="3"/>
+    </row>
+    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
+  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15944,24 +15393,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D699" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C700" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C701" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/step-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/step-showcase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5580B47B-4CE2-4747-B7BE-D65D00DB0A88}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5580B47B-4CE2-4747-B7BE-D65D00DB0A88}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16220" windowWidth="51200" windowHeight="15780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="15780" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16220" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Test Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
+    <definedName name="io">'#system'!$I$2:$I$24</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -45,7 +45,7 @@
     <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="488">
   <si>
     <t>description</t>
   </si>
@@ -1520,13 +1520,20 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1603,8 +1610,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1623,8 +1731,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1662,148 +1923,478 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="53">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1837,7 +2428,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1862,10 +2453,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1900,7 +2491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1935,7 +2526,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2029,21 +2620,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2060,7 +2651,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2112,26 +2703,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2211,7 +2802,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -2291,7 +2882,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2365,7 +2956,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2436,7 +3027,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2459,7 +3050,7 @@
         <v>349</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>486</v>
       </c>
       <c r="K5" t="s">
         <v>88</v>
@@ -2501,7 +3092,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2518,7 +3109,7 @@
         <v>460</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -2557,7 +3148,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2574,7 +3165,7 @@
         <v>456</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
         <v>316</v>
@@ -2613,7 +3204,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>348</v>
       </c>
@@ -2630,7 +3221,7 @@
         <v>329</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
@@ -2666,7 +3257,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2683,7 +3274,7 @@
         <v>330</v>
       </c>
       <c r="I9" t="s">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
@@ -2710,7 +3301,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>334</v>
       </c>
@@ -2724,7 +3315,7 @@
         <v>461</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>391</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -2748,7 +3339,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2762,7 +3353,7 @@
         <v>323</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>450</v>
@@ -2783,7 +3374,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -2797,7 +3388,7 @@
         <v>324</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
         <v>39</v>
@@ -2815,7 +3406,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2829,7 +3420,7 @@
         <v>325</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
         <v>40</v>
@@ -2847,7 +3438,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>240</v>
       </c>
@@ -2861,7 +3452,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>465</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -2879,7 +3470,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2890,7 +3481,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>465</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -2905,7 +3496,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>397</v>
       </c>
@@ -2916,7 +3507,7 @@
         <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -2928,7 +3519,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>424</v>
       </c>
@@ -2939,13 +3530,16 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>381</v>
+        <v>85</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>417</v>
       </c>
@@ -2956,13 +3550,13 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>358</v>
       </c>
@@ -2973,13 +3567,13 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>398</v>
       </c>
@@ -2990,13 +3584,13 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -3007,13 +3601,13 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>449</v>
+        <v>86</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3024,13 +3618,13 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>449</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -3041,13 +3635,13 @@
         <v>291</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3057,11 +3651,14 @@
       <c r="E24" t="s">
         <v>280</v>
       </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
       <c r="U24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>432</v>
       </c>
@@ -3075,7 +3672,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -3089,7 +3686,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>227</v>
       </c>
@@ -3100,7 +3697,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>422</v>
       </c>
@@ -3111,7 +3708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>65</v>
       </c>
@@ -3122,7 +3719,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>66</v>
       </c>
@@ -3133,7 +3730,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>67</v>
       </c>
@@ -3144,7 +3741,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" t="s">
         <v>68</v>
       </c>
@@ -3155,7 +3752,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="C33" t="s">
         <v>69</v>
       </c>
@@ -3166,7 +3763,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="C34" t="s">
         <v>70</v>
       </c>
@@ -3177,7 +3774,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="C35" t="s">
         <v>71</v>
       </c>
@@ -3188,7 +3785,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="C36" t="s">
         <v>72</v>
       </c>
@@ -3199,7 +3796,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>309</v>
       </c>
@@ -3207,7 +3804,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>268</v>
       </c>
@@ -3215,7 +3812,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>79</v>
       </c>
@@ -3223,7 +3820,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>213</v>
       </c>
@@ -3231,7 +3828,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>290</v>
       </c>
@@ -3239,7 +3836,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>301</v>
       </c>
@@ -3247,7 +3844,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>302</v>
       </c>
@@ -3255,7 +3852,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>344</v>
       </c>
@@ -3263,7 +3860,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>343</v>
       </c>
@@ -3271,7 +3868,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>212</v>
       </c>
@@ -3279,7 +3876,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>321</v>
       </c>
@@ -3287,7 +3884,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>340</v>
       </c>
@@ -3295,7 +3892,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>369</v>
       </c>
@@ -3303,7 +3900,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>303</v>
       </c>
@@ -3311,7 +3908,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>357</v>
       </c>
@@ -3319,7 +3916,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>332</v>
       </c>
@@ -3327,7 +3924,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>269</v>
       </c>
@@ -3335,7 +3932,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>293</v>
       </c>
@@ -3343,7 +3940,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>294</v>
       </c>
@@ -3351,7 +3948,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>295</v>
       </c>
@@ -3359,7 +3956,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>304</v>
       </c>
@@ -3367,7 +3964,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>313</v>
       </c>
@@ -3375,7 +3972,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>338</v>
       </c>
@@ -3383,7 +3980,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>310</v>
       </c>
@@ -3391,7 +3988,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>311</v>
       </c>
@@ -3399,7 +3996,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>370</v>
       </c>
@@ -3407,7 +4004,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>371</v>
       </c>
@@ -3415,7 +4012,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>346</v>
       </c>
@@ -3423,7 +4020,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>314</v>
       </c>
@@ -3431,7 +4028,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>270</v>
       </c>
@@ -3439,7 +4036,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>354</v>
       </c>
@@ -3447,7 +4044,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>315</v>
       </c>
@@ -3455,7 +4052,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
         <v>411</v>
       </c>
@@ -3463,7 +4060,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
         <v>305</v>
       </c>
@@ -3471,7 +4068,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
         <v>412</v>
       </c>
@@ -3479,7 +4076,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>263</v>
       </c>
@@ -3487,7 +4084,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>345</v>
       </c>
@@ -3495,7 +4092,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>281</v>
       </c>
@@ -3503,7 +4100,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>287</v>
       </c>
@@ -3511,7 +4108,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>292</v>
       </c>
@@ -3519,7 +4116,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>438</v>
       </c>
@@ -3527,7 +4124,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>333</v>
       </c>
@@ -3535,7 +4132,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>271</v>
       </c>
@@ -3543,7 +4140,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>282</v>
       </c>
@@ -3551,7 +4148,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>288</v>
       </c>
@@ -3559,7 +4156,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>277</v>
       </c>
@@ -3567,7 +4164,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>272</v>
       </c>
@@ -3575,7 +4172,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>289</v>
       </c>
@@ -3583,7 +4180,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>273</v>
       </c>
@@ -3591,7 +4188,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>274</v>
       </c>
@@ -3599,7 +4196,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>306</v>
       </c>
@@ -3607,7 +4204,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>312</v>
       </c>
@@ -3615,7 +4212,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>296</v>
       </c>
@@ -3623,7 +4220,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>341</v>
       </c>
@@ -3631,7 +4228,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>278</v>
       </c>
@@ -3639,7 +4236,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="E92" t="s">
         <v>279</v>
       </c>
@@ -3647,163 +4244,163 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="U93" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="U94" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="U95" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="U96" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="U97" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="U98" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="U99" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="U100" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="U101" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="U102" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="U103" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="U104" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="U105" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="U106" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="107" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="U107" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="U108" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="109" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="U109" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="U110" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="111" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="U111" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="U112" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="113" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="U113" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="U114" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="115" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="U115" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="116" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="U116" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="117" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="72.1640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="18.5" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.5" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="34.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="72.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="42.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="30.6640625" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="18.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="18.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3834,7 +4431,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>48</v>
       </c>
@@ -3855,7 +4452,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -3872,7 +4469,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>222</v>
       </c>
@@ -3917,7 +4514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>413</v>
       </c>
@@ -3944,7 +4541,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
         <v>429</v>
@@ -3969,7 +4566,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="133" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>483</v>
       </c>
@@ -3996,7 +4593,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="3" t="s">
         <v>426</v>
@@ -4025,7 +4622,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="3" t="s">
         <v>431</v>
@@ -4050,7 +4647,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -4075,7 +4672,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -4100,7 +4697,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -4123,7 +4720,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>471</v>
       </c>
@@ -4154,7 +4751,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
         <v>475</v>
@@ -4183,7 +4780,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>476</v>
       </c>
@@ -4214,7 +4811,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>478</v>
       </c>
@@ -4245,7 +4842,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>480</v>
@@ -4274,7 +4871,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>481</v>
       </c>
@@ -4305,7 +4902,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4322,7 +4919,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4339,7 +4936,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4356,7 +4953,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4373,7 +4970,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4390,7 +4987,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4407,7 +5004,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -4424,7 +5021,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -4441,7 +5038,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -4458,7 +5055,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -4475,7 +5072,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="8"/>
       <c r="C29" s="13"/>
@@ -4492,7 +5089,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -4509,7 +5106,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4526,7 +5123,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4543,7 +5140,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4560,7 +5157,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4577,7 +5174,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4594,7 +5191,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4611,7 +5208,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4628,7 +5225,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -4645,7 +5242,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -4662,7 +5259,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -4679,7 +5276,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -4696,7 +5293,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -4713,7 +5310,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -4730,7 +5327,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -4747,7 +5344,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -4764,7 +5361,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -4781,7 +5378,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -4798,7 +5395,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -4815,7 +5412,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -4832,7 +5429,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -4849,7 +5446,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -4866,7 +5463,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -4883,7 +5480,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -4900,7 +5497,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -4917,7 +5514,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -4934,7 +5531,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -4951,7 +5548,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -4968,7 +5565,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -4985,7 +5582,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5002,7 +5599,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5019,7 +5616,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5036,7 +5633,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5053,7 +5650,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5070,7 +5667,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5087,7 +5684,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5104,7 +5701,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5121,7 +5718,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5138,7 +5735,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5155,7 +5752,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5172,7 +5769,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5189,7 +5786,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5206,7 +5803,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5223,7 +5820,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5240,7 +5837,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5257,7 +5854,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5274,7 +5871,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5291,7 +5888,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5308,7 +5905,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5325,7 +5922,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5342,7 +5939,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5359,7 +5956,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5376,7 +5973,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5393,7 +5990,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5410,7 +6007,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5427,7 +6024,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5444,7 +6041,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5461,7 +6058,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5478,7 +6075,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5495,7 +6092,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5512,7 +6109,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5529,7 +6126,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5546,7 +6143,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5563,7 +6160,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5580,7 +6177,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5597,7 +6194,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5614,7 +6211,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5631,7 +6228,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5648,7 +6245,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -5665,7 +6262,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -5682,7 +6279,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -5699,7 +6296,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -5716,7 +6313,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -5733,7 +6330,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -5750,7 +6347,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -5767,7 +6364,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -5784,7 +6381,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -5801,7 +6398,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -5818,7 +6415,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -5835,7 +6432,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -5852,7 +6449,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -5869,7 +6466,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -5886,7 +6483,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -5903,7 +6500,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -5920,7 +6517,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -5937,7 +6534,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -5954,7 +6551,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -5971,7 +6568,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -5988,7 +6585,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6005,7 +6602,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6022,7 +6619,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6039,7 +6636,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6056,7 +6653,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6073,7 +6670,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6090,7 +6687,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6107,7 +6704,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6124,7 +6721,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6141,7 +6738,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6158,7 +6755,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6175,7 +6772,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6192,7 +6789,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6209,7 +6806,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6226,7 +6823,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6243,7 +6840,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6260,7 +6857,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6277,7 +6874,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6294,7 +6891,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6311,7 +6908,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6328,7 +6925,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6345,7 +6942,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6362,7 +6959,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6379,7 +6976,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6396,7 +6993,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -6413,7 +7010,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -6430,7 +7027,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -6447,7 +7044,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6464,7 +7061,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -6481,7 +7078,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -6498,7 +7095,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6515,7 +7112,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6532,7 +7129,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6549,7 +7146,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -6566,7 +7163,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -6583,7 +7180,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -6600,7 +7197,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6617,7 +7214,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6634,7 +7231,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -6651,7 +7248,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -6668,7 +7265,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -6685,7 +7282,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -6702,7 +7299,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -6719,7 +7316,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -6736,7 +7333,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -6753,7 +7350,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -6770,7 +7367,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -6787,7 +7384,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -6804,7 +7401,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -6821,7 +7418,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -6838,7 +7435,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -6855,7 +7452,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -6872,7 +7469,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -6889,7 +7486,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -6906,7 +7503,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -6923,7 +7520,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -6940,7 +7537,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -6957,7 +7554,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -6974,7 +7571,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -6991,7 +7588,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7008,7 +7605,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7025,7 +7622,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7042,7 +7639,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7059,7 +7656,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7076,7 +7673,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7093,7 +7690,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7110,7 +7707,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7127,7 +7724,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7144,7 +7741,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7161,7 +7758,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7178,7 +7775,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7195,7 +7792,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7212,7 +7809,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7229,7 +7826,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7246,7 +7843,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7263,7 +7860,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7280,7 +7877,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7297,7 +7894,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7314,7 +7911,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7331,7 +7928,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7348,7 +7945,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7365,7 +7962,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7382,7 +7979,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7399,7 +7996,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -7416,7 +8013,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -7433,7 +8030,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -7450,7 +8047,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7467,7 +8064,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -7484,7 +8081,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -7501,7 +8098,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7518,7 +8115,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7535,7 +8132,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7552,7 +8149,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -7569,7 +8166,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -7586,7 +8183,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -7603,7 +8200,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7620,7 +8217,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7637,7 +8234,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -7654,7 +8251,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -7671,7 +8268,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -7688,7 +8285,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -7705,7 +8302,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -7722,7 +8319,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -7739,7 +8336,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -7756,7 +8353,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -7773,7 +8370,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -7790,7 +8387,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -7807,7 +8404,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -7824,7 +8421,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -7841,7 +8438,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -7858,7 +8455,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -7875,7 +8472,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -7892,7 +8489,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -7909,7 +8506,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -7926,7 +8523,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -7943,7 +8540,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -7960,7 +8557,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -7977,7 +8574,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -7994,7 +8591,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8011,7 +8608,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8028,7 +8625,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8045,7 +8642,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8062,7 +8659,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8079,7 +8676,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8096,7 +8693,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8113,7 +8710,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8130,7 +8727,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8147,7 +8744,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8164,7 +8761,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8181,7 +8778,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8198,7 +8795,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8215,7 +8812,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8232,7 +8829,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8249,7 +8846,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8266,7 +8863,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8283,7 +8880,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8300,7 +8897,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8317,7 +8914,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8334,7 +8931,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8351,7 +8948,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8368,7 +8965,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8385,7 +8982,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8402,7 +8999,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -8419,7 +9016,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -8436,7 +9033,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -8453,7 +9050,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8470,7 +9067,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -8487,7 +9084,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -8504,7 +9101,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8521,7 +9118,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8538,7 +9135,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -8555,7 +9152,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -8572,7 +9169,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -8589,7 +9186,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8606,7 +9203,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8623,7 +9220,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8640,7 +9237,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -8657,7 +9254,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -8674,7 +9271,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -8691,7 +9288,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -8708,7 +9305,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -8725,7 +9322,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -8742,7 +9339,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -8759,7 +9356,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -8776,7 +9373,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -8793,7 +9390,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -8810,7 +9407,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -8827,7 +9424,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -8844,7 +9441,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -8861,7 +9458,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -8878,7 +9475,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -8895,7 +9492,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -8912,7 +9509,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -8929,7 +9526,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -8946,7 +9543,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -8963,7 +9560,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -8980,7 +9577,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -8997,7 +9594,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9014,7 +9611,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9031,7 +9628,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9048,7 +9645,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9065,7 +9662,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9082,7 +9679,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9099,7 +9696,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -9116,7 +9713,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -9133,7 +9730,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -9150,7 +9747,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -9167,7 +9764,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -9184,7 +9781,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -9201,7 +9798,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -9218,7 +9815,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -9235,7 +9832,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -9252,7 +9849,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -9269,7 +9866,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -9286,7 +9883,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -9303,7 +9900,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -9320,7 +9917,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -9337,7 +9934,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -9354,7 +9951,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -9371,7 +9968,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -9388,7 +9985,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -9405,7 +10002,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -9422,7 +10019,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -9439,7 +10036,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -9456,7 +10053,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -9473,7 +10070,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -9490,7 +10087,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -9507,7 +10104,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -9524,7 +10121,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -9541,7 +10138,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -9558,7 +10155,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -9575,7 +10172,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -9592,7 +10189,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9609,7 +10206,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9626,7 +10223,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -9643,7 +10240,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -9660,7 +10257,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -9677,7 +10274,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -9694,7 +10291,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -9711,7 +10308,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -9728,7 +10325,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -9745,7 +10342,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -9762,7 +10359,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -9779,7 +10376,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -9796,7 +10393,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -9813,7 +10410,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -9830,7 +10427,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -9847,7 +10444,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -9864,7 +10461,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -9881,7 +10478,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -9898,7 +10495,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -9915,7 +10512,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -9932,7 +10529,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -9949,7 +10546,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -9966,7 +10563,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -9983,7 +10580,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -10000,7 +10597,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -10017,7 +10614,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -10034,7 +10631,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -10051,7 +10648,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -10068,7 +10665,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -10085,7 +10682,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -10102,7 +10699,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -10119,7 +10716,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -10136,7 +10733,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -10153,7 +10750,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -10170,7 +10767,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -10187,7 +10784,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -10204,7 +10801,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -10221,7 +10818,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -10238,7 +10835,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -10255,7 +10852,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -10272,7 +10869,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -10289,7 +10886,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -10306,7 +10903,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -10323,7 +10920,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -10340,7 +10937,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -10357,7 +10954,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -10374,7 +10971,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -10391,7 +10988,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -10408,7 +11005,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -10425,7 +11022,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -10442,7 +11039,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -10459,7 +11056,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -10476,7 +11073,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -10493,7 +11090,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -10510,7 +11107,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -10527,7 +11124,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -10544,7 +11141,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -10561,7 +11158,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -10578,7 +11175,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -10595,7 +11192,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10612,7 +11209,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10629,7 +11226,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -10646,7 +11243,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -10663,7 +11260,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -10680,7 +11277,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -10697,7 +11294,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -10714,7 +11311,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -10731,7 +11328,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -10748,7 +11345,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -10765,7 +11362,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -10782,7 +11379,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -10799,7 +11396,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -10816,7 +11413,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -10833,7 +11430,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -10850,7 +11447,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -10867,7 +11464,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -10884,7 +11481,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -10901,7 +11498,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -10918,7 +11515,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -10935,7 +11532,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -10952,7 +11549,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -10969,7 +11566,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -10986,7 +11583,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -11003,7 +11600,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -11020,7 +11617,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -11037,7 +11634,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -11054,7 +11651,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -11071,7 +11668,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -11088,7 +11685,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -11105,7 +11702,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -11122,7 +11719,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -11139,7 +11736,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -11156,7 +11753,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -11173,7 +11770,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -11190,7 +11787,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -11207,7 +11804,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -11224,7 +11821,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -11241,7 +11838,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -11258,7 +11855,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -11275,7 +11872,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -11292,7 +11889,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -11309,7 +11906,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -11326,7 +11923,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -11343,7 +11940,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -11360,7 +11957,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -11377,7 +11974,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -11394,7 +11991,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -11411,7 +12008,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -11428,7 +12025,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -11445,7 +12042,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -11462,7 +12059,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -11479,7 +12076,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -11496,7 +12093,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -11513,7 +12110,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -11530,7 +12127,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -11547,7 +12144,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -11564,7 +12161,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -11581,7 +12178,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -11598,7 +12195,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11615,7 +12212,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11632,7 +12229,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -11649,7 +12246,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -11666,7 +12263,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -11683,7 +12280,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -11700,7 +12297,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -11717,7 +12314,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -11734,7 +12331,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -11751,7 +12348,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -11768,7 +12365,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -11785,7 +12382,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -11802,7 +12399,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -11819,7 +12416,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -11836,7 +12433,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -11853,7 +12450,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -11870,7 +12467,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -11887,7 +12484,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -11904,7 +12501,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -11921,7 +12518,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -11938,7 +12535,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -11955,7 +12552,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -11972,7 +12569,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -11989,7 +12586,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -12006,7 +12603,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -12023,7 +12620,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -12040,7 +12637,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -12057,7 +12654,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -12074,7 +12671,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -12091,7 +12688,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -12108,7 +12705,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -12125,7 +12722,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -12142,7 +12739,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -12159,7 +12756,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -12176,7 +12773,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -12193,7 +12790,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -12210,7 +12807,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -12227,7 +12824,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -12244,7 +12841,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -12261,7 +12858,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -12278,7 +12875,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -12295,7 +12892,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -12312,7 +12909,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -12329,7 +12926,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -12346,7 +12943,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -12363,7 +12960,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -12380,7 +12977,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -12397,7 +12994,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -12414,7 +13011,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -12431,7 +13028,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -12448,7 +13045,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -12465,7 +13062,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -12482,7 +13079,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -12499,7 +13096,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -12516,7 +13113,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -12533,7 +13130,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -12550,7 +13147,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -12567,7 +13164,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -12584,7 +13181,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -12601,7 +13198,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12618,7 +13215,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12635,7 +13232,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -12652,7 +13249,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -12669,7 +13266,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -12686,7 +13283,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -12703,7 +13300,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -12720,7 +13317,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -12737,7 +13334,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -12754,7 +13351,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -12771,7 +13368,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -12788,7 +13385,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -12805,7 +13402,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -12822,7 +13419,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -12839,7 +13436,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -12856,7 +13453,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -12873,7 +13470,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -12890,7 +13487,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -12907,7 +13504,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -12924,7 +13521,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -12941,7 +13538,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -12958,7 +13555,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -12975,7 +13572,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -12992,7 +13589,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -13009,7 +13606,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -13026,7 +13623,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -13043,7 +13640,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -13060,7 +13657,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -13077,7 +13674,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -13094,7 +13691,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -13111,7 +13708,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -13128,7 +13725,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -13145,7 +13742,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -13162,7 +13759,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -13179,7 +13776,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -13196,7 +13793,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -13213,7 +13810,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -13230,7 +13827,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -13247,7 +13844,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -13264,7 +13861,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -13281,7 +13878,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -13298,7 +13895,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -13315,7 +13912,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -13332,7 +13929,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -13349,7 +13946,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -13366,7 +13963,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -13383,7 +13980,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -13400,7 +13997,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -13417,7 +14014,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -13434,7 +14031,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -13451,7 +14048,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -13468,7 +14065,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -13485,7 +14082,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -13502,7 +14099,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -13519,7 +14116,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -13536,7 +14133,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -13553,7 +14150,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -13570,7 +14167,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -13587,7 +14184,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13604,7 +14201,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13621,7 +14218,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13638,7 +14235,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -13655,7 +14252,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -13672,7 +14269,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -13689,7 +14286,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -13706,7 +14303,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -13723,7 +14320,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -13740,7 +14337,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -13757,7 +14354,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -13774,7 +14371,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -13791,7 +14388,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -13808,7 +14405,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -13825,7 +14422,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -13842,7 +14439,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -13859,7 +14456,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -13876,7 +14473,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -13893,7 +14490,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -13910,7 +14507,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -13927,7 +14524,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -13944,7 +14541,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -13961,7 +14558,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -13978,7 +14575,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -13995,7 +14592,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -14012,7 +14609,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -14029,7 +14626,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -14046,7 +14643,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -14063,7 +14660,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -14080,7 +14677,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -14097,7 +14694,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -14114,7 +14711,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -14131,7 +14728,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -14148,7 +14745,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -14165,7 +14762,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -14182,7 +14779,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -14199,7 +14796,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -14216,7 +14813,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -14233,7 +14830,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -14250,7 +14847,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -14267,7 +14864,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -14284,7 +14881,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -14301,7 +14898,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -14318,7 +14915,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -14335,7 +14932,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -14352,7 +14949,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -14369,7 +14966,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -14386,7 +14983,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -14403,7 +15000,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -14420,7 +15017,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -14437,7 +15034,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -14454,7 +15051,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -14471,7 +15068,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -14488,7 +15085,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -14505,7 +15102,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -14522,7 +15119,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -14539,7 +15136,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -14556,7 +15153,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -14573,7 +15170,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -14590,7 +15187,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14607,7 +15204,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14624,7 +15221,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14641,7 +15238,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -14658,7 +15255,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -14675,7 +15272,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -14692,7 +15289,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -14709,7 +15306,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -14726,7 +15323,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -14743,7 +15340,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -14760,7 +15357,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -14777,7 +15374,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -14794,7 +15391,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -14811,7 +15408,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -14828,7 +15425,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -14845,7 +15442,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -14862,7 +15459,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -14879,7 +15476,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -14896,7 +15493,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -14913,7 +15510,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -14930,7 +15527,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -14947,7 +15544,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -14964,7 +15561,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="27"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -14981,7 +15578,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="27"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -14998,7 +15595,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="27"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -15015,7 +15612,7 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A649" s="27"/>
       <c r="B649" s="5"/>
       <c r="C649" s="13"/>
@@ -15032,360 +15629,360 @@
       <c r="N649" s="15"/>
       <c r="O649" s="3"/>
     </row>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht=